--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2256009.953536964</v>
+        <v>-2256833.368636652</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5096686531243404</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="S8" t="n">
-        <v>11.94294668035388</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="T9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R10" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>305.1334033542744</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>21.12891510944127</v>
+        <v>293.1447203119562</v>
       </c>
       <c r="D11" t="n">
-        <v>284.1260243564841</v>
+        <v>284.1260243564842</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>325.0399780143668</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>326.4544948093649</v>
+        <v>326.454494809365</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>239.2107011623956</v>
       </c>
       <c r="I11" t="n">
-        <v>66.12017415851101</v>
+        <v>66.12017415851112</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.56594410088928</v>
       </c>
       <c r="T11" t="n">
-        <v>134.8748230868716</v>
+        <v>134.8748230868717</v>
       </c>
       <c r="U11" t="n">
-        <v>167.3252820663874</v>
+        <v>167.3252820663875</v>
       </c>
       <c r="V11" t="n">
-        <v>248.6397805944535</v>
+        <v>248.6397805944536</v>
       </c>
       <c r="W11" t="n">
-        <v>273.9398800724104</v>
+        <v>273.9398800724105</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>30.38093090284053</v>
       </c>
       <c r="Y11" t="n">
-        <v>304.6367361013558</v>
+        <v>304.6367361013559</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.75011422897144</v>
+        <v>96.75011422897155</v>
       </c>
       <c r="C13" t="n">
-        <v>82.95010907437192</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.55267698035657</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.51922332772976</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>65.98614765591618</v>
       </c>
       <c r="G13" t="n">
-        <v>82.02815649136083</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>70.74035781437973</v>
+        <v>70.74035781437985</v>
       </c>
       <c r="I13" t="n">
-        <v>50.79357341598946</v>
+        <v>50.79357341598958</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>52.59409953341387</v>
       </c>
       <c r="S13" t="n">
-        <v>122.547744390183</v>
+        <v>122.5477443901831</v>
       </c>
       <c r="T13" t="n">
-        <v>144.8832253714184</v>
+        <v>144.8832253714185</v>
       </c>
       <c r="U13" t="n">
-        <v>199.33594395345</v>
+        <v>199.3359439534501</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>42.62481223340659</v>
       </c>
       <c r="W13" t="n">
-        <v>198.3251366992103</v>
+        <v>198.3251366992104</v>
       </c>
       <c r="X13" t="n">
-        <v>143.9702386950134</v>
+        <v>143.9702386950135</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>134.8451064510812</v>
       </c>
     </row>
     <row r="14">
@@ -1613,10 +1613,10 @@
         <v>284.1260243564841</v>
       </c>
       <c r="E14" t="n">
-        <v>305.8681619263896</v>
+        <v>214.6181994616104</v>
       </c>
       <c r="F14" t="n">
-        <v>325.0399780143668</v>
+        <v>325.0399780143667</v>
       </c>
       <c r="G14" t="n">
         <v>326.4544948093649</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.12017415851101</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.56594410088917</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>47.30405758097486</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.9398800724104</v>
+        <v>273.9398800724103</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>293.240138305157</v>
       </c>
       <c r="Y14" t="n">
-        <v>304.6367361013558</v>
+        <v>304.6367361013557</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.75011422897144</v>
+        <v>96.75011422897143</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95010907437192</v>
+        <v>82.95010907437191</v>
       </c>
       <c r="D16" t="n">
-        <v>66.57147347195031</v>
+        <v>66.5714734719503</v>
       </c>
       <c r="E16" t="n">
-        <v>65.51922332772976</v>
+        <v>65.51922332772975</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98614765591607</v>
+        <v>65.98614765591606</v>
       </c>
       <c r="G16" t="n">
-        <v>82.02815649136083</v>
+        <v>82.02815649136082</v>
       </c>
       <c r="H16" t="n">
-        <v>70.74035781437975</v>
+        <v>70.74035781437973</v>
       </c>
       <c r="I16" t="n">
-        <v>50.79357341598946</v>
+        <v>18.08064758302643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.59409953341375</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>122.547744390183</v>
@@ -1819,7 +1819,7 @@
         <v>144.8832253714184</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>199.33594395345</v>
       </c>
       <c r="V16" t="n">
         <v>173.158250628597</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.9702386950134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>104.9037863431393</v>
+        <v>134.8451064510811</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>235.8572252488617</v>
+        <v>235.8572252488618</v>
       </c>
       <c r="C17" t="n">
-        <v>223.8685422065434</v>
+        <v>223.8685422065435</v>
       </c>
       <c r="D17" t="n">
-        <v>214.8498462510714</v>
+        <v>214.8498462510715</v>
       </c>
       <c r="E17" t="n">
-        <v>236.5919838209769</v>
+        <v>236.591983820977</v>
       </c>
       <c r="F17" t="n">
-        <v>255.7637999089541</v>
+        <v>255.7637999089542</v>
       </c>
       <c r="G17" t="n">
-        <v>257.1783167039522</v>
+        <v>257.1783167039523</v>
       </c>
       <c r="H17" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.28976599547646</v>
+        <v>19.28976599547657</v>
       </c>
       <c r="T17" t="n">
-        <v>65.59864498145888</v>
+        <v>65.59864498145899</v>
       </c>
       <c r="U17" t="n">
-        <v>98.04910396097466</v>
+        <v>98.04910396097478</v>
       </c>
       <c r="V17" t="n">
-        <v>179.3636024890408</v>
+        <v>179.3636024890409</v>
       </c>
       <c r="W17" t="n">
-        <v>204.6637019669977</v>
+        <v>204.6637019669978</v>
       </c>
       <c r="X17" t="n">
-        <v>223.9639601997443</v>
+        <v>223.9639601997444</v>
       </c>
       <c r="Y17" t="n">
-        <v>235.3605579959431</v>
+        <v>235.3605579959432</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.47393612355873</v>
+        <v>27.47393612355884</v>
       </c>
       <c r="C19" t="n">
-        <v>13.67393096895921</v>
+        <v>13.67393096895933</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>30.11460506389137</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.75197838594812</v>
+        <v>12.75197838594824</v>
       </c>
       <c r="H19" t="n">
-        <v>1.464179708967027</v>
+        <v>1.46417970896714</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.11460506389263</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.27156628477029</v>
+        <v>53.27156628477041</v>
       </c>
       <c r="T19" t="n">
-        <v>75.60704726600571</v>
+        <v>75.60704726600582</v>
       </c>
       <c r="U19" t="n">
-        <v>130.0597658480373</v>
+        <v>130.0597658480374</v>
       </c>
       <c r="V19" t="n">
-        <v>103.8820725231843</v>
+        <v>103.8820725231844</v>
       </c>
       <c r="W19" t="n">
-        <v>129.0489585937976</v>
+        <v>129.0489585937977</v>
       </c>
       <c r="X19" t="n">
-        <v>74.6940605896007</v>
+        <v>74.69406058960081</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.56892834566838</v>
+        <v>65.5689283456685</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>235.8572252488617</v>
+        <v>235.8572252488618</v>
       </c>
       <c r="C20" t="n">
-        <v>223.8685422065434</v>
+        <v>223.8685422065435</v>
       </c>
       <c r="D20" t="n">
-        <v>214.8498462510714</v>
+        <v>214.8498462510715</v>
       </c>
       <c r="E20" t="n">
-        <v>236.5919838209769</v>
+        <v>236.591983820977</v>
       </c>
       <c r="F20" t="n">
-        <v>255.7637999089541</v>
+        <v>255.7637999089542</v>
       </c>
       <c r="G20" t="n">
-        <v>257.1783167039522</v>
+        <v>257.1783167039523</v>
       </c>
       <c r="H20" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.28976599547646</v>
+        <v>19.28976599547657</v>
       </c>
       <c r="T20" t="n">
-        <v>65.59864498145888</v>
+        <v>65.59864498145899</v>
       </c>
       <c r="U20" t="n">
-        <v>98.04910396097466</v>
+        <v>98.04910396097478</v>
       </c>
       <c r="V20" t="n">
-        <v>179.3636024890408</v>
+        <v>179.3636024890409</v>
       </c>
       <c r="W20" t="n">
-        <v>204.6637019669977</v>
+        <v>204.6637019669978</v>
       </c>
       <c r="X20" t="n">
-        <v>223.9639601997443</v>
+        <v>223.9639601997444</v>
       </c>
       <c r="Y20" t="n">
-        <v>235.3605579959431</v>
+        <v>235.3605579959432</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.47393612355873</v>
+        <v>27.47393612355884</v>
       </c>
       <c r="C22" t="n">
-        <v>13.67393096895921</v>
+        <v>13.67393096895933</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.75197838594812</v>
+        <v>42.86658344983961</v>
       </c>
       <c r="H22" t="n">
-        <v>1.464179708967027</v>
+        <v>1.46417970896714</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.27156628477029</v>
+        <v>53.27156628477041</v>
       </c>
       <c r="T22" t="n">
-        <v>75.60704726600571</v>
+        <v>75.60704726600582</v>
       </c>
       <c r="U22" t="n">
-        <v>130.0597658480373</v>
+        <v>130.0597658480374</v>
       </c>
       <c r="V22" t="n">
-        <v>133.9966775870771</v>
+        <v>103.8820725231844</v>
       </c>
       <c r="W22" t="n">
-        <v>129.0489585937976</v>
+        <v>129.0489585937977</v>
       </c>
       <c r="X22" t="n">
-        <v>74.6940605896007</v>
+        <v>74.69406058960081</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.56892834566838</v>
+        <v>65.5689283456685</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>235.8572252488617</v>
+        <v>235.8572252488618</v>
       </c>
       <c r="C23" t="n">
-        <v>223.8685422065434</v>
+        <v>223.8685422065435</v>
       </c>
       <c r="D23" t="n">
-        <v>214.8498462510714</v>
+        <v>214.8498462510715</v>
       </c>
       <c r="E23" t="n">
-        <v>236.5919838209769</v>
+        <v>236.591983820977</v>
       </c>
       <c r="F23" t="n">
-        <v>255.7637999089541</v>
+        <v>255.7637999089542</v>
       </c>
       <c r="G23" t="n">
-        <v>257.1783167039522</v>
+        <v>257.1783167039523</v>
       </c>
       <c r="H23" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.28976599547647</v>
+        <v>19.28976599547657</v>
       </c>
       <c r="T23" t="n">
-        <v>65.59864498145888</v>
+        <v>65.59864498145899</v>
       </c>
       <c r="U23" t="n">
-        <v>98.04910396097466</v>
+        <v>98.04910396097478</v>
       </c>
       <c r="V23" t="n">
-        <v>179.3636024890408</v>
+        <v>179.3636024890409</v>
       </c>
       <c r="W23" t="n">
-        <v>204.6637019669977</v>
+        <v>204.6637019669978</v>
       </c>
       <c r="X23" t="n">
-        <v>223.9639601997443</v>
+        <v>223.9639601997444</v>
       </c>
       <c r="Y23" t="n">
-        <v>235.3605579959431</v>
+        <v>235.3605579959432</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.47393612355873</v>
+        <v>27.47393612355884</v>
       </c>
       <c r="C25" t="n">
-        <v>13.67393096895921</v>
+        <v>13.67393096895933</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.75197838594812</v>
+        <v>12.75197838594824</v>
       </c>
       <c r="H25" t="n">
-        <v>1.464179708967027</v>
+        <v>1.46417970896714</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>30.11460506389138</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.27156628477029</v>
+        <v>53.27156628477041</v>
       </c>
       <c r="T25" t="n">
-        <v>75.60704726600571</v>
+        <v>75.60704726600582</v>
       </c>
       <c r="U25" t="n">
-        <v>160.1743709119299</v>
+        <v>130.0597658480374</v>
       </c>
       <c r="V25" t="n">
-        <v>103.8820725231843</v>
+        <v>103.8820725231844</v>
       </c>
       <c r="W25" t="n">
-        <v>129.0489585937976</v>
+        <v>129.0489585937977</v>
       </c>
       <c r="X25" t="n">
-        <v>74.6940605896007</v>
+        <v>74.69406058960081</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.56892834566838</v>
+        <v>65.5689283456685</v>
       </c>
     </row>
     <row r="26">
@@ -2798,19 +2798,19 @@
         <v>266.1902839131851</v>
       </c>
       <c r="E29" t="n">
-        <v>287.9324214830906</v>
+        <v>287.9324214830907</v>
       </c>
       <c r="F29" t="n">
-        <v>307.1042375710678</v>
+        <v>307.1042375710679</v>
       </c>
       <c r="G29" t="n">
-        <v>308.5187543660659</v>
+        <v>308.518754366066</v>
       </c>
       <c r="H29" t="n">
         <v>221.2749607190965</v>
       </c>
       <c r="I29" t="n">
-        <v>48.18443371521205</v>
+        <v>48.18443371521207</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.63020365759022</v>
+        <v>70.63020365759024</v>
       </c>
       <c r="T29" t="n">
         <v>116.9390826435726</v>
@@ -2852,13 +2852,13 @@
         <v>230.7040401511545</v>
       </c>
       <c r="W29" t="n">
-        <v>256.0041396291114</v>
+        <v>256.0041396291115</v>
       </c>
       <c r="X29" t="n">
-        <v>275.304397861858</v>
+        <v>275.3043978618581</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.7009956580568</v>
+        <v>286.7009956580569</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.95358800164023</v>
+        <v>41.95358800164024</v>
       </c>
       <c r="S30" t="n">
         <v>146.1160054094308</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.81437378567249</v>
+        <v>78.8143737856725</v>
       </c>
       <c r="C31" t="n">
-        <v>65.01436863107297</v>
+        <v>65.01436863107298</v>
       </c>
       <c r="D31" t="n">
-        <v>48.63573302865136</v>
+        <v>48.63573302865137</v>
       </c>
       <c r="E31" t="n">
-        <v>47.58348288443081</v>
+        <v>47.58348288443082</v>
       </c>
       <c r="F31" t="n">
-        <v>48.05040721261712</v>
+        <v>48.05040721261713</v>
       </c>
       <c r="G31" t="n">
-        <v>64.09241604806188</v>
+        <v>64.09241604806189</v>
       </c>
       <c r="H31" t="n">
-        <v>52.80461737108078</v>
+        <v>52.80461737108081</v>
       </c>
       <c r="I31" t="n">
-        <v>32.8578329726905</v>
+        <v>32.85783297269052</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65835909011479</v>
+        <v>34.65835909011483</v>
       </c>
       <c r="S31" t="n">
-        <v>104.612003946884</v>
+        <v>104.6120039468841</v>
       </c>
       <c r="T31" t="n">
         <v>126.9474849281195</v>
@@ -3010,13 +3010,13 @@
         <v>155.2225101852981</v>
       </c>
       <c r="W31" t="n">
-        <v>180.3893962559113</v>
+        <v>180.3893962559114</v>
       </c>
       <c r="X31" t="n">
         <v>126.0344982517145</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.9093660077821</v>
+        <v>116.9093660077822</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.1077837458343</v>
+        <v>284.1077837458342</v>
       </c>
       <c r="C32" t="n">
         <v>272.119100703516</v>
@@ -3035,19 +3035,19 @@
         <v>263.100404748044</v>
       </c>
       <c r="E32" t="n">
-        <v>284.8425423179496</v>
+        <v>284.8425423179494</v>
       </c>
       <c r="F32" t="n">
-        <v>304.0143584059267</v>
+        <v>304.0143584059266</v>
       </c>
       <c r="G32" t="n">
-        <v>305.4288752009248</v>
+        <v>305.4288752009247</v>
       </c>
       <c r="H32" t="n">
         <v>218.1850815539553</v>
       </c>
       <c r="I32" t="n">
-        <v>45.09455455007095</v>
+        <v>45.09455455007085</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.54032449244913</v>
+        <v>67.54032449244903</v>
       </c>
       <c r="T32" t="n">
-        <v>113.8492034784315</v>
+        <v>113.8492034784314</v>
       </c>
       <c r="U32" t="n">
-        <v>146.2996624579473</v>
+        <v>146.2996624579472</v>
       </c>
       <c r="V32" t="n">
-        <v>227.6141609860134</v>
+        <v>227.6141609860133</v>
       </c>
       <c r="W32" t="n">
-        <v>252.9142604639703</v>
+        <v>252.9142604639702</v>
       </c>
       <c r="X32" t="n">
-        <v>272.2145186967169</v>
+        <v>272.2145186967168</v>
       </c>
       <c r="Y32" t="n">
-        <v>283.6111164929157</v>
+        <v>283.6111164929156</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.72449462053139</v>
+        <v>75.72449462053129</v>
       </c>
       <c r="C34" t="n">
-        <v>61.92448946593187</v>
+        <v>61.92448946593177</v>
       </c>
       <c r="D34" t="n">
-        <v>45.54585386351026</v>
+        <v>45.54585386351016</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49360371928971</v>
+        <v>44.49360371928961</v>
       </c>
       <c r="F34" t="n">
-        <v>44.96052804747602</v>
+        <v>44.96052804747592</v>
       </c>
       <c r="G34" t="n">
-        <v>61.00253688292078</v>
+        <v>61.00253688292068</v>
       </c>
       <c r="H34" t="n">
-        <v>49.71473820593968</v>
+        <v>49.71473820593958</v>
       </c>
       <c r="I34" t="n">
-        <v>29.76795380754941</v>
+        <v>29.76795380754931</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.5684799249737</v>
+        <v>31.5684799249736</v>
       </c>
       <c r="S34" t="n">
-        <v>101.522124781743</v>
+        <v>101.5221247817429</v>
       </c>
       <c r="T34" t="n">
-        <v>123.8576057629784</v>
+        <v>123.8576057629783</v>
       </c>
       <c r="U34" t="n">
         <v>178.3103243450099</v>
       </c>
       <c r="V34" t="n">
-        <v>152.132631020157</v>
+        <v>152.1326310201569</v>
       </c>
       <c r="W34" t="n">
-        <v>177.2995170907702</v>
+        <v>177.2995170907701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.9446190865734</v>
+        <v>122.9446190865733</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.819486842641</v>
+        <v>113.8194868426409</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.28976599547659</v>
+        <v>19.28976599547661</v>
       </c>
       <c r="T35" t="n">
-        <v>65.59864498145899</v>
+        <v>65.59864498145902</v>
       </c>
       <c r="U35" t="n">
-        <v>98.04910396097478</v>
+        <v>98.0491039609748</v>
       </c>
       <c r="V35" t="n">
         <v>179.3636024890409</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.47393612355884</v>
+        <v>27.47393612355887</v>
       </c>
       <c r="C37" t="n">
-        <v>13.67393096895933</v>
+        <v>13.67393096895935</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.75197838594824</v>
+        <v>12.75197838594826</v>
       </c>
       <c r="H37" t="n">
-        <v>1.46417970896714</v>
+        <v>1.464179708967169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.66702808690968</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.27156628477041</v>
+        <v>83.38617134866158</v>
       </c>
       <c r="T37" t="n">
-        <v>87.05462424298747</v>
+        <v>75.60704726600585</v>
       </c>
       <c r="U37" t="n">
         <v>130.0597658480374</v>
       </c>
       <c r="V37" t="n">
-        <v>103.8820725231844</v>
+        <v>103.8820725231845</v>
       </c>
       <c r="W37" t="n">
         <v>129.0489585937977</v>
       </c>
       <c r="X37" t="n">
-        <v>74.69406058960081</v>
+        <v>74.69406058960084</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.5689283456685</v>
+        <v>65.56892834566852</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.28976599547659</v>
+        <v>19.28976599547661</v>
       </c>
       <c r="T38" t="n">
-        <v>65.59864498145899</v>
+        <v>65.59864498145902</v>
       </c>
       <c r="U38" t="n">
-        <v>98.04910396097478</v>
+        <v>98.0491039609748</v>
       </c>
       <c r="V38" t="n">
         <v>179.3636024890409</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.47393612355884</v>
+        <v>27.47393612355887</v>
       </c>
       <c r="C40" t="n">
-        <v>13.67393096895933</v>
+        <v>13.67393096895935</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.75197838594824</v>
+        <v>24.19955536292971</v>
       </c>
       <c r="H40" t="n">
-        <v>1.46417970896714</v>
+        <v>1.464179708967169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.66702808690968</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>83.3861713486618</v>
+        <v>53.27156628477044</v>
       </c>
       <c r="T40" t="n">
-        <v>75.60704726600582</v>
+        <v>75.60704726600585</v>
       </c>
       <c r="U40" t="n">
         <v>130.0597658480374</v>
       </c>
       <c r="V40" t="n">
-        <v>103.8820725231844</v>
+        <v>103.8820725231845</v>
       </c>
       <c r="W40" t="n">
         <v>129.0489585937977</v>
       </c>
       <c r="X40" t="n">
-        <v>74.69406058960081</v>
+        <v>74.69406058960084</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.5689283456685</v>
+        <v>65.56892834566852</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.28976599547647</v>
+        <v>19.28976599547649</v>
       </c>
       <c r="T41" t="n">
         <v>65.5986449814589</v>
@@ -3940,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.66702808690967</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>30.11460506389241</v>
       </c>
       <c r="S43" t="n">
         <v>53.27156628477032</v>
       </c>
       <c r="T43" t="n">
-        <v>87.0546242429885</v>
+        <v>75.60704726600574</v>
       </c>
       <c r="U43" t="n">
         <v>130.0597658480373</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.8572252488617</v>
+        <v>235.8572252488618</v>
       </c>
       <c r="C44" t="n">
-        <v>223.8685422065434</v>
+        <v>223.8685422065435</v>
       </c>
       <c r="D44" t="n">
-        <v>214.8498462510714</v>
+        <v>214.8498462510715</v>
       </c>
       <c r="E44" t="n">
-        <v>236.5919838209769</v>
+        <v>236.591983820977</v>
       </c>
       <c r="F44" t="n">
-        <v>255.7637999089541</v>
+        <v>255.7637999089542</v>
       </c>
       <c r="G44" t="n">
-        <v>257.1783167039522</v>
+        <v>257.1783167039523</v>
       </c>
       <c r="H44" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I44" t="n">
-        <v>1.871143240350648e-12</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.28976599547649</v>
+        <v>19.28976599547659</v>
       </c>
       <c r="T44" t="n">
-        <v>65.5986449814589</v>
+        <v>65.59864498145902</v>
       </c>
       <c r="U44" t="n">
-        <v>98.04910396097469</v>
+        <v>98.0491039609748</v>
       </c>
       <c r="V44" t="n">
-        <v>179.3636024890408</v>
+        <v>179.3636024890409</v>
       </c>
       <c r="W44" t="n">
-        <v>204.6637019669977</v>
+        <v>204.6637019669978</v>
       </c>
       <c r="X44" t="n">
-        <v>223.9639601997443</v>
+        <v>223.9639601997444</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.3605579959431</v>
+        <v>235.3605579959432</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.47393612355876</v>
+        <v>27.47393612355887</v>
       </c>
       <c r="C46" t="n">
-        <v>13.67393096895924</v>
+        <v>13.67393096895935</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.75197838594815</v>
+        <v>12.75197838594826</v>
       </c>
       <c r="H46" t="n">
-        <v>1.464179708967055</v>
+        <v>1.464179708967168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.27156628477032</v>
+        <v>83.38617134866158</v>
       </c>
       <c r="T46" t="n">
-        <v>105.7216523298982</v>
+        <v>75.60704726600585</v>
       </c>
       <c r="U46" t="n">
-        <v>130.0597658480373</v>
+        <v>130.0597658480374</v>
       </c>
       <c r="V46" t="n">
-        <v>103.8820725231843</v>
+        <v>103.8820725231845</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0489585937976</v>
+        <v>129.0489585937977</v>
       </c>
       <c r="X46" t="n">
-        <v>74.69406058960072</v>
+        <v>74.69406058960084</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.56892834566841</v>
+        <v>65.56892834566852</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="C8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="D8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="E8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="F8" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="G8" t="n">
         <v>13.01901823983628</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.9554357344283108</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I8" t="n">
         <v>0.9554357344283108</v>
@@ -4805,22 +4805,22 @@
         <v>12.77895294797866</v>
       </c>
       <c r="K8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L8" t="n">
-        <v>12.77895294797866</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="M8" t="n">
-        <v>12.77895294797866</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N8" t="n">
-        <v>12.77895294797866</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O8" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P8" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
@@ -4829,25 +4829,25 @@
         <v>35.70820421600757</v>
       </c>
       <c r="S8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="T8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="U8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="V8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="W8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="X8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C9" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D9" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E9" t="n">
         <v>13.01901823983628</v>
@@ -4884,49 +4884,49 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K9" t="n">
-        <v>12.3012350807645</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L9" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M9" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N9" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O9" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="P9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q9" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S9" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T9" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U9" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V9" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W9" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X9" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J10" t="n">
         <v>0.9554357344283108</v>
@@ -4966,46 +4966,46 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L10" t="n">
-        <v>24.60247016152901</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M10" t="n">
-        <v>36.42598737507935</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="N10" t="n">
-        <v>47.77178672141554</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P10" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T10" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U10" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1083.859600653147</v>
+        <v>1271.926801007231</v>
       </c>
       <c r="C11" t="n">
-        <v>1062.517262158762</v>
+        <v>975.8210229143466</v>
       </c>
       <c r="D11" t="n">
-        <v>775.521277960293</v>
+        <v>688.8250387158778</v>
       </c>
       <c r="E11" t="n">
-        <v>775.521277960293</v>
+        <v>688.8250387158778</v>
       </c>
       <c r="F11" t="n">
-        <v>447.198067844771</v>
+        <v>688.8250387158778</v>
       </c>
       <c r="G11" t="n">
-        <v>117.4460528858165</v>
+        <v>359.0730237569232</v>
       </c>
       <c r="H11" t="n">
-        <v>117.4460528858165</v>
+        <v>117.4460528858166</v>
       </c>
       <c r="I11" t="n">
         <v>50.65799818024986</v>
@@ -5045,19 +5045,19 @@
         <v>471.7121970530031</v>
       </c>
       <c r="L11" t="n">
-        <v>900.6417565878282</v>
+        <v>885.973420693502</v>
       </c>
       <c r="M11" t="n">
-        <v>1384.058195809357</v>
+        <v>1369.389859915031</v>
       </c>
       <c r="N11" t="n">
-        <v>1854.02599001958</v>
+        <v>1839.357654125254</v>
       </c>
       <c r="O11" t="n">
-        <v>2245.560262052935</v>
+        <v>2230.891926158609</v>
       </c>
       <c r="P11" t="n">
-        <v>2383.008565045143</v>
+        <v>2532.899909012493</v>
       </c>
       <c r="Q11" t="n">
         <v>2532.899909012493</v>
@@ -5066,25 +5066,25 @@
         <v>2532.899909012493</v>
       </c>
       <c r="S11" t="n">
-        <v>2532.899909012493</v>
+        <v>2443.439359415635</v>
       </c>
       <c r="T11" t="n">
-        <v>2396.662713975249</v>
+        <v>2307.202164378391</v>
       </c>
       <c r="U11" t="n">
-        <v>2227.647277544555</v>
+        <v>2138.186727947696</v>
       </c>
       <c r="V11" t="n">
-        <v>1976.495984014804</v>
+        <v>1887.035434417945</v>
       </c>
       <c r="W11" t="n">
-        <v>1699.789034446713</v>
+        <v>1610.328484849854</v>
       </c>
       <c r="X11" t="n">
-        <v>1699.789034446713</v>
+        <v>1579.640675857086</v>
       </c>
       <c r="Y11" t="n">
-        <v>1392.075159596858</v>
+        <v>1271.926801007231</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.3299698356712</v>
+        <v>917.3299698356717</v>
       </c>
       <c r="C12" t="n">
-        <v>755.6262970766261</v>
+        <v>755.6262970766265</v>
       </c>
       <c r="D12" t="n">
-        <v>616.787660066838</v>
+        <v>616.7876600668385</v>
       </c>
       <c r="E12" t="n">
-        <v>469.7596501237092</v>
+        <v>469.7596501237097</v>
       </c>
       <c r="F12" t="n">
-        <v>335.0658520735836</v>
+        <v>335.0658520735841</v>
       </c>
       <c r="G12" t="n">
         <v>206.6177120051398</v>
@@ -5118,25 +5118,25 @@
         <v>50.65799818024986</v>
       </c>
       <c r="J12" t="n">
-        <v>50.65799818024986</v>
+        <v>136.8728993259476</v>
       </c>
       <c r="K12" t="n">
-        <v>324.5196153415149</v>
+        <v>136.8728993259476</v>
       </c>
       <c r="L12" t="n">
-        <v>750.0038325972507</v>
+        <v>562.3571165816835</v>
       </c>
       <c r="M12" t="n">
-        <v>1304.660360239106</v>
+        <v>1117.013644223539</v>
       </c>
       <c r="N12" t="n">
-        <v>1720.755638702319</v>
+        <v>1527.908487713212</v>
       </c>
       <c r="O12" t="n">
-        <v>2178.332919019419</v>
+        <v>1985.485768030312</v>
       </c>
       <c r="P12" t="n">
-        <v>2532.899909012493</v>
+        <v>2340.052758023386</v>
       </c>
       <c r="Q12" t="n">
         <v>2532.899909012493</v>
@@ -5148,7 +5148,7 @@
         <v>2342.930622738684</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.375566078797</v>
+        <v>2155.375566078798</v>
       </c>
       <c r="U12" t="n">
         <v>1936.899218407915</v>
@@ -5160,10 +5160,10 @@
         <v>1467.187727089559</v>
       </c>
       <c r="X12" t="n">
-        <v>1269.270738967353</v>
+        <v>1269.270738967354</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.749412616932</v>
+        <v>1076.749412616933</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.4601164673089</v>
+        <v>240.0722192775079</v>
       </c>
       <c r="C13" t="n">
-        <v>388.6721275032968</v>
+        <v>240.0722192775079</v>
       </c>
       <c r="D13" t="n">
-        <v>322.4573022706134</v>
+        <v>240.0722192775079</v>
       </c>
       <c r="E13" t="n">
-        <v>256.2762686062399</v>
+        <v>240.0722192775079</v>
       </c>
       <c r="F13" t="n">
-        <v>256.2762686062399</v>
+        <v>173.4195448775926</v>
       </c>
       <c r="G13" t="n">
         <v>173.4195448775926</v>
       </c>
       <c r="H13" t="n">
-        <v>101.9646379943807</v>
+        <v>101.9646379943808</v>
       </c>
       <c r="I13" t="n">
         <v>50.65799818024986</v>
       </c>
       <c r="J13" t="n">
-        <v>92.20284555917323</v>
+        <v>92.20284555917317</v>
       </c>
       <c r="K13" t="n">
-        <v>236.691487821267</v>
+        <v>236.6914878212668</v>
       </c>
       <c r="L13" t="n">
-        <v>455.667853272935</v>
+        <v>455.6678532729347</v>
       </c>
       <c r="M13" t="n">
-        <v>693.8924292330557</v>
+        <v>693.8924292330553</v>
       </c>
       <c r="N13" t="n">
-        <v>931.6872003761928</v>
+        <v>931.6872003761925</v>
       </c>
       <c r="O13" t="n">
         <v>1146.83217147495</v>
@@ -5221,28 +5221,28 @@
         <v>1387.422140041295</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.422140041295</v>
+        <v>1334.29678697724</v>
       </c>
       <c r="S13" t="n">
-        <v>1263.636539647171</v>
+        <v>1210.511186583116</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.289847352809</v>
+        <v>1064.164494288754</v>
       </c>
       <c r="U13" t="n">
-        <v>915.9404090159908</v>
+        <v>862.8150559519354</v>
       </c>
       <c r="V13" t="n">
-        <v>915.9404090159908</v>
+        <v>819.7596900596055</v>
       </c>
       <c r="W13" t="n">
-        <v>715.6119881076976</v>
+        <v>619.4312691513122</v>
       </c>
       <c r="X13" t="n">
-        <v>570.187504577381</v>
+        <v>474.0067856209956</v>
       </c>
       <c r="Y13" t="n">
-        <v>570.187504577381</v>
+        <v>337.7996073875802</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1670.939140384737</v>
+        <v>1511.979406421816</v>
       </c>
       <c r="C14" t="n">
-        <v>1374.833362291852</v>
+        <v>1215.873628328931</v>
       </c>
       <c r="D14" t="n">
-        <v>1087.837378093383</v>
+        <v>928.8776441304622</v>
       </c>
       <c r="E14" t="n">
-        <v>778.8796387737975</v>
+        <v>712.0915840682298</v>
       </c>
       <c r="F14" t="n">
-        <v>450.5564286582753</v>
+        <v>383.7683739527079</v>
       </c>
       <c r="G14" t="n">
-        <v>120.8044136993201</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="H14" t="n">
-        <v>120.8044136993201</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="I14" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J14" t="n">
         <v>169.6029711321573</v>
       </c>
       <c r="K14" t="n">
-        <v>475.0705578665066</v>
+        <v>475.0705578665065</v>
       </c>
       <c r="L14" t="n">
         <v>904.0001174013316</v>
@@ -5294,34 +5294,34 @@
         <v>2248.918622866439</v>
       </c>
       <c r="P14" t="n">
-        <v>2550.92660572032</v>
+        <v>2550.926605720323</v>
       </c>
       <c r="Q14" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="R14" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="S14" t="n">
-        <v>2611.357400090812</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="T14" t="n">
-        <v>2611.357400090812</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="U14" t="n">
-        <v>2563.575523746394</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="V14" t="n">
-        <v>2563.575523746394</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="W14" t="n">
-        <v>2286.868574178302</v>
+        <v>2424.111000119581</v>
       </c>
       <c r="X14" t="n">
-        <v>2286.868574178302</v>
+        <v>2127.908840215382</v>
       </c>
       <c r="Y14" t="n">
-        <v>1979.154699328448</v>
+        <v>1820.194965365528</v>
       </c>
     </row>
     <row r="15">
@@ -5352,13 +5352,13 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I15" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J15" t="n">
-        <v>140.2312601394511</v>
+        <v>140.2312601394512</v>
       </c>
       <c r="K15" t="n">
-        <v>414.0928773007161</v>
+        <v>414.0928773007162</v>
       </c>
       <c r="L15" t="n">
         <v>839.577094556452</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>543.5002390459738</v>
+        <v>510.4568796187373</v>
       </c>
       <c r="C16" t="n">
-        <v>459.7122500819618</v>
+        <v>426.6688906547253</v>
       </c>
       <c r="D16" t="n">
-        <v>392.4683374840321</v>
+        <v>359.4249780567956</v>
       </c>
       <c r="E16" t="n">
-        <v>326.2873038196586</v>
+        <v>293.2439443924221</v>
       </c>
       <c r="F16" t="n">
-        <v>259.6346294197434</v>
+        <v>226.5912699925069</v>
       </c>
       <c r="G16" t="n">
-        <v>176.7779056910961</v>
+        <v>143.7345462638596</v>
       </c>
       <c r="H16" t="n">
-        <v>105.3229988078842</v>
+        <v>72.27963938064883</v>
       </c>
       <c r="I16" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J16" t="n">
-        <v>95.56120637267676</v>
+        <v>95.56120637267691</v>
       </c>
       <c r="K16" t="n">
         <v>240.0498486347705</v>
       </c>
       <c r="L16" t="n">
-        <v>459.0262140864385</v>
+        <v>459.0262140864386</v>
       </c>
       <c r="M16" t="n">
-        <v>697.2507900465592</v>
+        <v>697.2507900465594</v>
       </c>
       <c r="N16" t="n">
-        <v>935.0455611896963</v>
+        <v>935.0455611896965</v>
       </c>
       <c r="O16" t="n">
         <v>1150.190532288454</v>
@@ -5458,28 +5458,28 @@
         <v>1390.780500854799</v>
       </c>
       <c r="R16" t="n">
-        <v>1337.655147790745</v>
+        <v>1390.780500854799</v>
       </c>
       <c r="S16" t="n">
-        <v>1213.869547396621</v>
+        <v>1266.994900460675</v>
       </c>
       <c r="T16" t="n">
-        <v>1067.522855102258</v>
+        <v>1120.648208166313</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.522855102258</v>
+        <v>919.2987698294944</v>
       </c>
       <c r="V16" t="n">
-        <v>892.6155312349881</v>
+        <v>744.3914459622247</v>
       </c>
       <c r="W16" t="n">
-        <v>892.6155312349881</v>
+        <v>744.3914459622247</v>
       </c>
       <c r="X16" t="n">
-        <v>747.1910477046715</v>
+        <v>744.3914459622247</v>
       </c>
       <c r="Y16" t="n">
-        <v>641.227627156046</v>
+        <v>608.1842677288095</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1425.922431668986</v>
+        <v>1425.922431668987</v>
       </c>
       <c r="C17" t="n">
-        <v>1199.792591056316</v>
+        <v>1199.792591056317</v>
       </c>
       <c r="D17" t="n">
-        <v>982.7725443380623</v>
+        <v>982.7725443380631</v>
       </c>
       <c r="E17" t="n">
-        <v>743.7907424986917</v>
+        <v>743.7907424986923</v>
       </c>
       <c r="F17" t="n">
-        <v>485.4434698633845</v>
+        <v>485.4434698633851</v>
       </c>
       <c r="G17" t="n">
-        <v>225.667392384645</v>
+        <v>225.6673923846452</v>
       </c>
       <c r="H17" t="n">
-        <v>54.01635899375338</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="I17" t="n">
-        <v>54.01635899375338</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J17" t="n">
         <v>169.6029711321573</v>
@@ -5528,37 +5528,37 @@
         <v>1857.384350833083</v>
       </c>
       <c r="O17" t="n">
-        <v>2248.918622866435</v>
+        <v>2248.918622866439</v>
       </c>
       <c r="P17" t="n">
-        <v>2550.926605720319</v>
+        <v>2550.926605720323</v>
       </c>
       <c r="Q17" t="n">
-        <v>2700.817949687669</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="R17" t="n">
-        <v>2700.817949687669</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="S17" t="n">
-        <v>2681.333337571026</v>
+        <v>2681.333337571029</v>
       </c>
       <c r="T17" t="n">
-        <v>2615.072080013998</v>
+        <v>2615.072080014</v>
       </c>
       <c r="U17" t="n">
-        <v>2516.032581063519</v>
+        <v>2516.032581063521</v>
       </c>
       <c r="V17" t="n">
-        <v>2334.857225013983</v>
+        <v>2334.857225013985</v>
       </c>
       <c r="W17" t="n">
-        <v>2128.126212926106</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X17" t="n">
-        <v>1901.899990502122</v>
+        <v>1901.899990502124</v>
       </c>
       <c r="Y17" t="n">
-        <v>1664.162053132482</v>
+        <v>1664.162053132484</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5583,34 @@
         <v>338.4242128870876</v>
       </c>
       <c r="G18" t="n">
-        <v>209.9760728186435</v>
+        <v>209.9760728186436</v>
       </c>
       <c r="H18" t="n">
-        <v>112.7459018478573</v>
+        <v>112.7459018478574</v>
       </c>
       <c r="I18" t="n">
-        <v>54.01635899375338</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J18" t="n">
-        <v>54.01635899375338</v>
+        <v>140.2312601394512</v>
       </c>
       <c r="K18" t="n">
-        <v>327.8779761550184</v>
+        <v>414.0928773007162</v>
       </c>
       <c r="L18" t="n">
-        <v>393.8787823810651</v>
+        <v>839.577094556452</v>
       </c>
       <c r="M18" t="n">
-        <v>948.5353100229203</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N18" t="n">
-        <v>1531.266848526715</v>
+        <v>1976.965160702102</v>
       </c>
       <c r="O18" t="n">
-        <v>1988.844128843815</v>
+        <v>2434.542441019202</v>
       </c>
       <c r="P18" t="n">
-        <v>2343.411118836889</v>
+        <v>2536.258269825996</v>
       </c>
       <c r="Q18" t="n">
         <v>2536.258269825996</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.6069591228109</v>
+        <v>112.6069591228101</v>
       </c>
       <c r="C19" t="n">
-        <v>98.79490763901376</v>
+        <v>98.79490763901279</v>
       </c>
       <c r="D19" t="n">
-        <v>98.79490763901376</v>
+        <v>68.37611464518312</v>
       </c>
       <c r="E19" t="n">
-        <v>98.79490763901376</v>
+        <v>68.37611464518312</v>
       </c>
       <c r="F19" t="n">
-        <v>98.79490763901376</v>
+        <v>68.37611464518312</v>
       </c>
       <c r="G19" t="n">
-        <v>85.91412139058131</v>
+        <v>55.49532839675056</v>
       </c>
       <c r="H19" t="n">
-        <v>84.43515198758432</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="I19" t="n">
-        <v>84.43515198758432</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J19" t="n">
-        <v>54.01635899375338</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="K19" t="n">
         <v>114.3849974949682</v>
@@ -5680,43 +5680,43 @@
         <v>249.2413591857573</v>
       </c>
       <c r="M19" t="n">
-        <v>403.3459313849991</v>
+        <v>403.3459313849992</v>
       </c>
       <c r="N19" t="n">
-        <v>557.0206987672572</v>
+        <v>557.0206987672573</v>
       </c>
       <c r="O19" t="n">
-        <v>688.0456661051355</v>
+        <v>688.0456661051356</v>
       </c>
       <c r="P19" t="n">
-        <v>778.8759849557636</v>
+        <v>778.8759849557637</v>
       </c>
       <c r="Q19" t="n">
-        <v>778.8759849557636</v>
+        <v>778.8759849557637</v>
       </c>
       <c r="R19" t="n">
-        <v>778.8759849557636</v>
+        <v>778.8759849557637</v>
       </c>
       <c r="S19" t="n">
         <v>725.0663220418542</v>
       </c>
       <c r="T19" t="n">
-        <v>648.695567227707</v>
+        <v>648.6955672277069</v>
       </c>
       <c r="U19" t="n">
-        <v>517.3220663711036</v>
+        <v>517.3220663711033</v>
       </c>
       <c r="V19" t="n">
-        <v>412.3906799840487</v>
+        <v>412.3906799840483</v>
       </c>
       <c r="W19" t="n">
-        <v>282.0381965559703</v>
+        <v>282.0381965559699</v>
       </c>
       <c r="X19" t="n">
-        <v>206.5896505058686</v>
+        <v>206.589650505868</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.3584097526683</v>
+        <v>140.3584097526675</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1425.922431668988</v>
+        <v>1425.922431668986</v>
       </c>
       <c r="C20" t="n">
-        <v>1199.792591056318</v>
+        <v>1199.792591056316</v>
       </c>
       <c r="D20" t="n">
-        <v>982.7725443380637</v>
+        <v>982.7725443380621</v>
       </c>
       <c r="E20" t="n">
-        <v>743.790742498693</v>
+        <v>743.7907424986913</v>
       </c>
       <c r="F20" t="n">
-        <v>485.4434698633859</v>
+        <v>485.4434698633841</v>
       </c>
       <c r="G20" t="n">
-        <v>225.6673923846451</v>
+        <v>225.6673923846452</v>
       </c>
       <c r="H20" t="n">
         <v>54.01635899375345</v>
@@ -5750,13 +5750,13 @@
         <v>54.01635899375345</v>
       </c>
       <c r="J20" t="n">
-        <v>169.6029711321576</v>
+        <v>169.6029711321573</v>
       </c>
       <c r="K20" t="n">
-        <v>475.0705578665068</v>
+        <v>475.0705578665066</v>
       </c>
       <c r="L20" t="n">
-        <v>904.0001174013319</v>
+        <v>904.0001174013316</v>
       </c>
       <c r="M20" t="n">
         <v>1387.416556622861</v>
@@ -5783,19 +5783,19 @@
         <v>2615.072080014</v>
       </c>
       <c r="U20" t="n">
-        <v>2516.032581063521</v>
+        <v>2516.03258106352</v>
       </c>
       <c r="V20" t="n">
-        <v>2334.857225013985</v>
+        <v>2334.857225013984</v>
       </c>
       <c r="W20" t="n">
-        <v>2128.126212926108</v>
+        <v>2128.126212926107</v>
       </c>
       <c r="X20" t="n">
-        <v>1901.899990502124</v>
+        <v>1901.899990502123</v>
       </c>
       <c r="Y20" t="n">
-        <v>1664.162053132485</v>
+        <v>1664.162053132483</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>839.577094556452</v>
       </c>
       <c r="M21" t="n">
-        <v>1394.233622198307</v>
+        <v>948.5353100229203</v>
       </c>
       <c r="N21" t="n">
         <v>1531.266848526715</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.18816612898007</v>
+        <v>112.6069591228101</v>
       </c>
       <c r="C22" t="n">
-        <v>68.37611464518289</v>
+        <v>98.79490763901279</v>
       </c>
       <c r="D22" t="n">
-        <v>68.37611464518289</v>
+        <v>98.79490763901279</v>
       </c>
       <c r="E22" t="n">
-        <v>68.37611464518289</v>
+        <v>98.79490763901279</v>
       </c>
       <c r="F22" t="n">
-        <v>68.37611464518289</v>
+        <v>98.79490763901279</v>
       </c>
       <c r="G22" t="n">
-        <v>55.49532839675044</v>
+        <v>55.49532839675056</v>
       </c>
       <c r="H22" t="n">
         <v>54.01635899375345</v>
@@ -5935,25 +5935,25 @@
         <v>778.8759849557637</v>
       </c>
       <c r="S22" t="n">
-        <v>725.0663220418543</v>
+        <v>725.0663220418542</v>
       </c>
       <c r="T22" t="n">
-        <v>648.6955672277071</v>
+        <v>648.6955672277069</v>
       </c>
       <c r="U22" t="n">
-        <v>517.3220663711038</v>
+        <v>517.3220663711033</v>
       </c>
       <c r="V22" t="n">
-        <v>381.9718869902179</v>
+        <v>412.3906799840483</v>
       </c>
       <c r="W22" t="n">
-        <v>251.6194035621395</v>
+        <v>282.0381965559699</v>
       </c>
       <c r="X22" t="n">
-        <v>176.1708575120378</v>
+        <v>206.589650505868</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.9396167588374</v>
+        <v>140.3584097526675</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1425.922431668985</v>
+        <v>1425.922431668987</v>
       </c>
       <c r="C23" t="n">
-        <v>1199.792591056315</v>
+        <v>1199.792591056317</v>
       </c>
       <c r="D23" t="n">
-        <v>982.7725443380614</v>
+        <v>982.7725443380625</v>
       </c>
       <c r="E23" t="n">
-        <v>743.7907424986906</v>
+        <v>743.790742498692</v>
       </c>
       <c r="F23" t="n">
-        <v>485.4434698633836</v>
+        <v>485.443469863385</v>
       </c>
       <c r="G23" t="n">
-        <v>225.667392384645</v>
+        <v>225.6673923846452</v>
       </c>
       <c r="H23" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="I23" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J23" t="n">
-        <v>169.6029711321546</v>
+        <v>169.6029711321574</v>
       </c>
       <c r="K23" t="n">
-        <v>475.0705578665039</v>
+        <v>475.0705578665067</v>
       </c>
       <c r="L23" t="n">
-        <v>904.0001174013289</v>
+        <v>904.0001174013317</v>
       </c>
       <c r="M23" t="n">
-        <v>1387.416556622858</v>
+        <v>1387.416556622861</v>
       </c>
       <c r="N23" t="n">
-        <v>1857.384350833081</v>
+        <v>1857.384350833083</v>
       </c>
       <c r="O23" t="n">
-        <v>2248.918622866436</v>
+        <v>2248.918622866439</v>
       </c>
       <c r="P23" t="n">
-        <v>2550.92660572032</v>
+        <v>2550.926605720323</v>
       </c>
       <c r="Q23" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="R23" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="S23" t="n">
-        <v>2681.333337571027</v>
+        <v>2681.333337571029</v>
       </c>
       <c r="T23" t="n">
-        <v>2615.072080013997</v>
+        <v>2615.072080014</v>
       </c>
       <c r="U23" t="n">
-        <v>2516.032581063519</v>
+        <v>2516.032581063521</v>
       </c>
       <c r="V23" t="n">
-        <v>2334.857225013982</v>
+        <v>2334.857225013984</v>
       </c>
       <c r="W23" t="n">
-        <v>2128.126212926106</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X23" t="n">
-        <v>1901.899990502122</v>
+        <v>1901.899990502124</v>
       </c>
       <c r="Y23" t="n">
-        <v>1664.162053132482</v>
+        <v>1664.162053132484</v>
       </c>
     </row>
     <row r="24">
@@ -6057,19 +6057,19 @@
         <v>338.4242128870876</v>
       </c>
       <c r="G24" t="n">
-        <v>209.9760728186435</v>
+        <v>209.9760728186436</v>
       </c>
       <c r="H24" t="n">
-        <v>112.7459018478573</v>
+        <v>112.7459018478574</v>
       </c>
       <c r="I24" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J24" t="n">
-        <v>140.2312601394511</v>
+        <v>140.2312601394512</v>
       </c>
       <c r="K24" t="n">
-        <v>414.0928773007161</v>
+        <v>414.0928773007162</v>
       </c>
       <c r="L24" t="n">
         <v>839.577094556452</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.18816612898001</v>
+        <v>112.6069591228101</v>
       </c>
       <c r="C25" t="n">
-        <v>68.37611464518284</v>
+        <v>98.79490763901279</v>
       </c>
       <c r="D25" t="n">
-        <v>68.37611464518284</v>
+        <v>98.79490763901279</v>
       </c>
       <c r="E25" t="n">
-        <v>68.37611464518284</v>
+        <v>98.79490763901279</v>
       </c>
       <c r="F25" t="n">
-        <v>68.37611464518284</v>
+        <v>98.79490763901279</v>
       </c>
       <c r="G25" t="n">
-        <v>55.49532839675039</v>
+        <v>85.91412139058023</v>
       </c>
       <c r="H25" t="n">
-        <v>54.01635899375339</v>
+        <v>84.43515198758313</v>
       </c>
       <c r="I25" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J25" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="K25" t="n">
         <v>114.3849974949682</v>
@@ -6154,43 +6154,43 @@
         <v>249.2413591857573</v>
       </c>
       <c r="M25" t="n">
-        <v>403.3459313849991</v>
+        <v>403.3459313849992</v>
       </c>
       <c r="N25" t="n">
-        <v>557.0206987672572</v>
+        <v>557.0206987672573</v>
       </c>
       <c r="O25" t="n">
-        <v>688.0456661051355</v>
+        <v>688.0456661051356</v>
       </c>
       <c r="P25" t="n">
-        <v>778.8759849557636</v>
+        <v>778.8759849557637</v>
       </c>
       <c r="Q25" t="n">
-        <v>778.8759849557636</v>
+        <v>778.8759849557637</v>
       </c>
       <c r="R25" t="n">
-        <v>778.8759849557636</v>
+        <v>778.8759849557637</v>
       </c>
       <c r="S25" t="n">
         <v>725.0663220418542</v>
       </c>
       <c r="T25" t="n">
-        <v>648.695567227707</v>
+        <v>648.6955672277069</v>
       </c>
       <c r="U25" t="n">
-        <v>486.9032733772727</v>
+        <v>517.3220663711033</v>
       </c>
       <c r="V25" t="n">
-        <v>381.9718869902178</v>
+        <v>412.3906799840483</v>
       </c>
       <c r="W25" t="n">
-        <v>251.6194035621394</v>
+        <v>282.0381965559699</v>
       </c>
       <c r="X25" t="n">
-        <v>176.1708575120377</v>
+        <v>206.589650505868</v>
       </c>
       <c r="Y25" t="n">
-        <v>109.9396167588373</v>
+        <v>140.3584097526675</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1801.557898288068</v>
+        <v>1801.557898288066</v>
       </c>
       <c r="C26" t="n">
-        <v>1523.569029733869</v>
+        <v>1523.569029733867</v>
       </c>
       <c r="D26" t="n">
-        <v>1254.689955074086</v>
+        <v>1254.689955074085</v>
       </c>
       <c r="E26" t="n">
-        <v>963.849125293186</v>
+        <v>963.8491252931849</v>
       </c>
       <c r="F26" t="n">
-        <v>653.6428247163499</v>
+        <v>653.6428247163494</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0077192960812</v>
+        <v>342.0077192960807</v>
       </c>
       <c r="H26" t="n">
-        <v>118.4976579636606</v>
+        <v>118.4976579636605</v>
       </c>
       <c r="I26" t="n">
-        <v>69.8265127967797</v>
+        <v>69.82651279677967</v>
       </c>
       <c r="J26" t="n">
         <v>287.2895117349285</v>
@@ -6230,46 +6230,46 @@
         <v>694.6334852690227</v>
       </c>
       <c r="L26" t="n">
-        <v>1139.823932408599</v>
+        <v>1185.125873553917</v>
       </c>
       <c r="M26" t="n">
-        <v>1725.116758429873</v>
+        <v>1770.418699575192</v>
       </c>
       <c r="N26" t="n">
-        <v>2296.96093943984</v>
+        <v>2342.262880585159</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.371598272941</v>
+        <v>2835.67353941826</v>
       </c>
       <c r="P26" t="n">
-        <v>3194.25596792657</v>
+        <v>3239.557909071888</v>
       </c>
       <c r="Q26" t="n">
-        <v>3446.023698693664</v>
+        <v>3491.325639838983</v>
       </c>
       <c r="R26" t="n">
-        <v>3491.325639838984</v>
+        <v>3491.325639838983</v>
       </c>
       <c r="S26" t="n">
-        <v>3419.981999780813</v>
+        <v>3419.981999780811</v>
       </c>
       <c r="T26" t="n">
-        <v>3301.861714282255</v>
+        <v>3301.861714282253</v>
       </c>
       <c r="U26" t="n">
-        <v>3150.963187390246</v>
+        <v>3150.963187390244</v>
       </c>
       <c r="V26" t="n">
-        <v>2917.928803399181</v>
+        <v>2917.928803399179</v>
       </c>
       <c r="W26" t="n">
-        <v>2659.338763369775</v>
+        <v>2659.338763369774</v>
       </c>
       <c r="X26" t="n">
-        <v>2381.253513004262</v>
+        <v>2381.253513004261</v>
       </c>
       <c r="Y26" t="n">
-        <v>2091.656547693094</v>
+        <v>2091.656547693092</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>635.9561746833683</v>
       </c>
       <c r="E27" t="n">
-        <v>488.9281647402396</v>
+        <v>488.9281647402395</v>
       </c>
       <c r="F27" t="n">
         <v>354.2343666901139</v>
@@ -6300,7 +6300,7 @@
         <v>128.5560556508836</v>
       </c>
       <c r="I27" t="n">
-        <v>69.8265127967797</v>
+        <v>69.82651279677967</v>
       </c>
       <c r="J27" t="n">
         <v>156.0414139424774</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.4920260781992</v>
+        <v>432.4920260781999</v>
       </c>
       <c r="C28" t="n">
-        <v>366.820946652873</v>
+        <v>366.8209466528737</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6939435936292</v>
+        <v>317.6939435936299</v>
       </c>
       <c r="E28" t="n">
-        <v>269.6298194679415</v>
+        <v>269.6298194679422</v>
       </c>
       <c r="F28" t="n">
-        <v>221.0940546067121</v>
+        <v>221.0940546067128</v>
       </c>
       <c r="G28" t="n">
-        <v>156.3542404167506</v>
+        <v>156.3542404167513</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0162430722247</v>
+        <v>103.0162430722246</v>
       </c>
       <c r="I28" t="n">
-        <v>69.8265127967797</v>
+        <v>69.82651279677967</v>
       </c>
       <c r="J28" t="n">
         <v>129.127743214569</v>
@@ -6388,7 +6388,7 @@
         <v>291.3727685155287</v>
       </c>
       <c r="L28" t="n">
-        <v>528.1055170060627</v>
+        <v>528.105517006063</v>
       </c>
       <c r="M28" t="n">
         <v>784.0864760050493</v>
@@ -6400,7 +6400,7 @@
         <v>1272.538984324676</v>
       </c>
       <c r="P28" t="n">
-        <v>1465.245689975048</v>
+        <v>1465.245689975049</v>
       </c>
       <c r="Q28" t="n">
         <v>1548.641718968753</v>
@@ -6418,16 +6418,16 @@
         <v>1096.502273034137</v>
       </c>
       <c r="V28" t="n">
-        <v>939.7118587055534</v>
+        <v>939.7118587055535</v>
       </c>
       <c r="W28" t="n">
-        <v>757.500347335946</v>
+        <v>757.5003473359461</v>
       </c>
       <c r="X28" t="n">
-        <v>630.1927733443152</v>
+        <v>630.1927733443154</v>
       </c>
       <c r="Y28" t="n">
-        <v>512.1025046495856</v>
+        <v>512.1025046495863</v>
       </c>
     </row>
     <row r="29">
@@ -6446,22 +6446,22 @@
         <v>1254.689955074086</v>
       </c>
       <c r="E29" t="n">
-        <v>963.8491252931867</v>
+        <v>963.8491252931863</v>
       </c>
       <c r="F29" t="n">
-        <v>653.6428247163506</v>
+        <v>653.6428247163503</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0077192960819</v>
+        <v>342.0077192960816</v>
       </c>
       <c r="H29" t="n">
         <v>118.4976579636606</v>
       </c>
       <c r="I29" t="n">
-        <v>69.82651279677971</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="J29" t="n">
-        <v>287.2895117349286</v>
+        <v>287.2895117349285</v>
       </c>
       <c r="K29" t="n">
         <v>694.6334852690227</v>
@@ -6473,13 +6473,13 @@
         <v>1810.732257624867</v>
       </c>
       <c r="N29" t="n">
-        <v>2296.960939439841</v>
+        <v>2382.576438634834</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.371598272942</v>
+        <v>2875.987097467935</v>
       </c>
       <c r="P29" t="n">
-        <v>3194.255967926571</v>
+        <v>3279.871467121563</v>
       </c>
       <c r="Q29" t="n">
         <v>3446.023698693665</v>
@@ -6488,7 +6488,7 @@
         <v>3491.325639838985</v>
       </c>
       <c r="S29" t="n">
-        <v>3419.981999780814</v>
+        <v>3419.981999780813</v>
       </c>
       <c r="T29" t="n">
         <v>3301.861714282255</v>
@@ -6500,7 +6500,7 @@
         <v>2917.928803399181</v>
       </c>
       <c r="W29" t="n">
-        <v>2659.338763369776</v>
+        <v>2659.338763369775</v>
       </c>
       <c r="X29" t="n">
         <v>2381.253513004262</v>
@@ -6537,7 +6537,7 @@
         <v>128.5560556508836</v>
       </c>
       <c r="I30" t="n">
-        <v>69.82651279677971</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="J30" t="n">
         <v>156.0414139424774</v>
@@ -6546,13 +6546,13 @@
         <v>429.9030311037424</v>
       </c>
       <c r="L30" t="n">
-        <v>855.3872483594785</v>
+        <v>429.9030311037424</v>
       </c>
       <c r="M30" t="n">
-        <v>1410.043776001334</v>
+        <v>984.5595587455975</v>
       </c>
       <c r="N30" t="n">
-        <v>1547.077002329741</v>
+        <v>1567.291097249392</v>
       </c>
       <c r="O30" t="n">
         <v>2004.654282646841</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.4920260781993</v>
+        <v>432.4920260781996</v>
       </c>
       <c r="C31" t="n">
-        <v>366.8209466528731</v>
+        <v>366.8209466528733</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6939435936293</v>
+        <v>317.6939435936295</v>
       </c>
       <c r="E31" t="n">
-        <v>269.6298194679416</v>
+        <v>269.6298194679418</v>
       </c>
       <c r="F31" t="n">
-        <v>221.0940546067122</v>
+        <v>221.0940546067123</v>
       </c>
       <c r="G31" t="n">
-        <v>156.3542404167507</v>
+        <v>156.3542404167508</v>
       </c>
       <c r="H31" t="n">
         <v>103.0162430722247</v>
       </c>
       <c r="I31" t="n">
-        <v>69.82651279677971</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="J31" t="n">
-        <v>129.127743214569</v>
+        <v>129.1277432145691</v>
       </c>
       <c r="K31" t="n">
-        <v>291.3727685155287</v>
+        <v>291.3727685155288</v>
       </c>
       <c r="L31" t="n">
-        <v>528.1055170060628</v>
+        <v>528.1055170060629</v>
       </c>
       <c r="M31" t="n">
-        <v>784.0864760050493</v>
+        <v>784.0864760050495</v>
       </c>
       <c r="N31" t="n">
-        <v>1039.637630187052</v>
+        <v>1039.637630187053</v>
       </c>
       <c r="O31" t="n">
         <v>1272.538984324676</v>
       </c>
       <c r="P31" t="n">
-        <v>1465.245689975048</v>
+        <v>1465.245689975049</v>
       </c>
       <c r="Q31" t="n">
         <v>1548.641718968753</v>
@@ -6658,13 +6658,13 @@
         <v>939.7118587055536</v>
       </c>
       <c r="W31" t="n">
-        <v>757.5003473359462</v>
+        <v>757.5003473359461</v>
       </c>
       <c r="X31" t="n">
-        <v>630.1927733443155</v>
+        <v>630.1927733443154</v>
       </c>
       <c r="Y31" t="n">
-        <v>512.1025046495856</v>
+        <v>512.102504649586</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1778.754832093046</v>
+        <v>1778.754832093045</v>
       </c>
       <c r="C32" t="n">
-        <v>1503.887053604646</v>
+        <v>1503.887053604645</v>
       </c>
       <c r="D32" t="n">
-        <v>1238.129069010662</v>
+        <v>1238.129069010661</v>
       </c>
       <c r="E32" t="n">
-        <v>950.4093292955617</v>
+        <v>950.4093292955608</v>
       </c>
       <c r="F32" t="n">
-        <v>643.3241187845247</v>
+        <v>643.3241187845238</v>
       </c>
       <c r="G32" t="n">
-        <v>334.8101034300551</v>
+        <v>334.8101034300543</v>
       </c>
       <c r="H32" t="n">
-        <v>114.4211321634332</v>
+        <v>114.4211321634331</v>
       </c>
       <c r="I32" t="n">
-        <v>68.8710770623514</v>
+        <v>68.87107706235139</v>
       </c>
       <c r="J32" t="n">
-        <v>282.7266715226469</v>
+        <v>289.39305637399</v>
       </c>
       <c r="K32" t="n">
-        <v>588.1942582569962</v>
+        <v>699.796010281574</v>
       </c>
       <c r="L32" t="n">
-        <v>1122.059184965056</v>
+        <v>1233.660936989634</v>
       </c>
       <c r="M32" t="n">
-        <v>1710.410991359819</v>
+        <v>1822.012743384397</v>
       </c>
       <c r="N32" t="n">
-        <v>2285.314152743277</v>
+        <v>2396.915904767855</v>
       </c>
       <c r="O32" t="n">
-        <v>2781.783791949867</v>
+        <v>2788.450176801211</v>
       </c>
       <c r="P32" t="n">
-        <v>3188.727141976985</v>
+        <v>3195.393526828329</v>
       </c>
       <c r="Q32" t="n">
-        <v>3443.55385311757</v>
+        <v>3443.553853117569</v>
       </c>
       <c r="R32" t="n">
-        <v>3443.55385311757</v>
+        <v>3443.553853117569</v>
       </c>
       <c r="S32" t="n">
-        <v>3375.331303125197</v>
+        <v>3375.331303125196</v>
       </c>
       <c r="T32" t="n">
         <v>3260.332107692438</v>
       </c>
       <c r="U32" t="n">
-        <v>3112.55467086623</v>
+        <v>3112.554670866227</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.641376940963</v>
+        <v>2882.641376940961</v>
       </c>
       <c r="W32" t="n">
-        <v>2627.172426977357</v>
+        <v>2627.172426977355</v>
       </c>
       <c r="X32" t="n">
-        <v>2352.208266677642</v>
+        <v>2352.208266677641</v>
       </c>
       <c r="Y32" t="n">
-        <v>2065.732391432273</v>
+        <v>2065.732391432271</v>
       </c>
     </row>
     <row r="33">
@@ -6768,13 +6768,13 @@
         <v>353.2789309556856</v>
       </c>
       <c r="G33" t="n">
-        <v>224.8307908872416</v>
+        <v>224.8307908872415</v>
       </c>
       <c r="H33" t="n">
-        <v>127.6006199164554</v>
+        <v>127.6006199164553</v>
       </c>
       <c r="I33" t="n">
-        <v>68.8710770623514</v>
+        <v>68.87107706235139</v>
       </c>
       <c r="J33" t="n">
         <v>155.0859782080491</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.6889598831774</v>
+        <v>409.6889598831767</v>
       </c>
       <c r="C34" t="n">
-        <v>347.1389705236502</v>
+        <v>347.1389705236496</v>
       </c>
       <c r="D34" t="n">
-        <v>301.1330575302055</v>
+        <v>301.133057530205</v>
       </c>
       <c r="E34" t="n">
-        <v>256.1900234703169</v>
+        <v>256.1900234703165</v>
       </c>
       <c r="F34" t="n">
-        <v>210.7753486748866</v>
+        <v>210.7753486748863</v>
       </c>
       <c r="G34" t="n">
-        <v>149.1566245507242</v>
+        <v>149.156624550724</v>
       </c>
       <c r="H34" t="n">
-        <v>98.93971727199727</v>
+        <v>98.93971727199715</v>
       </c>
       <c r="I34" t="n">
-        <v>68.8710770623514</v>
+        <v>68.87107706235139</v>
       </c>
       <c r="J34" t="n">
-        <v>131.2312878536304</v>
+        <v>131.2312878536305</v>
       </c>
       <c r="K34" t="n">
-        <v>296.5352935280798</v>
+        <v>296.53529352808</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3270223921035</v>
+        <v>536.3270223921038</v>
       </c>
       <c r="M34" t="n">
-        <v>795.3669617645799</v>
+        <v>720.9576777238747</v>
       </c>
       <c r="N34" t="n">
-        <v>1053.977096320073</v>
+        <v>979.5678122793676</v>
       </c>
       <c r="O34" t="n">
-        <v>1289.937430831186</v>
+        <v>1215.528146790481</v>
       </c>
       <c r="P34" t="n">
-        <v>1411.293832814345</v>
+        <v>1411.293832814343</v>
       </c>
       <c r="Q34" t="n">
-        <v>1497.748842181539</v>
+        <v>1497.748842181538</v>
       </c>
       <c r="R34" t="n">
-        <v>1465.86148872197</v>
+        <v>1465.861488721968</v>
       </c>
       <c r="S34" t="n">
-        <v>1363.31388793233</v>
+        <v>1363.313887932329</v>
       </c>
       <c r="T34" t="n">
-        <v>1238.205195242453</v>
+        <v>1238.205195242452</v>
       </c>
       <c r="U34" t="n">
-        <v>1058.09375651012</v>
+        <v>1058.093756510119</v>
       </c>
       <c r="V34" t="n">
-        <v>904.4244322473349</v>
+        <v>904.4244322473339</v>
       </c>
       <c r="W34" t="n">
-        <v>725.3340109435267</v>
+        <v>725.3340109435256</v>
       </c>
       <c r="X34" t="n">
-        <v>601.147527017695</v>
+        <v>601.1475270176941</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.1783483887647</v>
+        <v>486.1783483887638</v>
       </c>
     </row>
     <row r="35">
@@ -6914,46 +6914,46 @@
         <v>1425.922431668987</v>
       </c>
       <c r="C35" t="n">
-        <v>1199.792591056316</v>
+        <v>1199.792591056317</v>
       </c>
       <c r="D35" t="n">
-        <v>982.7725443380625</v>
+        <v>982.7725443380627</v>
       </c>
       <c r="E35" t="n">
-        <v>743.7907424986918</v>
+        <v>743.790742498692</v>
       </c>
       <c r="F35" t="n">
-        <v>485.4434698633845</v>
+        <v>485.4434698633847</v>
       </c>
       <c r="G35" t="n">
         <v>225.6673923846452</v>
       </c>
       <c r="H35" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="I35" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J35" t="n">
-        <v>169.6029711321571</v>
+        <v>169.6029711321576</v>
       </c>
       <c r="K35" t="n">
-        <v>475.0705578665065</v>
+        <v>475.0705578665068</v>
       </c>
       <c r="L35" t="n">
-        <v>904.0001174013312</v>
+        <v>904.0001174013319</v>
       </c>
       <c r="M35" t="n">
-        <v>1387.41655662286</v>
+        <v>1387.416556622861</v>
       </c>
       <c r="N35" t="n">
-        <v>1857.384350833083</v>
+        <v>1857.384350833084</v>
       </c>
       <c r="O35" t="n">
-        <v>2248.918622866438</v>
+        <v>2248.918622866439</v>
       </c>
       <c r="P35" t="n">
-        <v>2550.926605720322</v>
+        <v>2550.926605720323</v>
       </c>
       <c r="Q35" t="n">
         <v>2700.817949687672</v>
@@ -6962,10 +6962,10 @@
         <v>2700.817949687672</v>
       </c>
       <c r="S35" t="n">
-        <v>2681.333337571029</v>
+        <v>2681.33333757103</v>
       </c>
       <c r="T35" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080014001</v>
       </c>
       <c r="U35" t="n">
         <v>2516.03258106352</v>
@@ -6974,13 +6974,13 @@
         <v>2334.857225013984</v>
       </c>
       <c r="W35" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X35" t="n">
-        <v>1901.899990502123</v>
+        <v>1901.899990502124</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.162053132483</v>
+        <v>1664.162053132484</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I36" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J36" t="n">
-        <v>140.2312601394512</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="K36" t="n">
-        <v>414.0928773007162</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="L36" t="n">
-        <v>839.577094556452</v>
+        <v>393.8787823810651</v>
       </c>
       <c r="M36" t="n">
-        <v>1394.233622198307</v>
+        <v>948.5353100229203</v>
       </c>
       <c r="N36" t="n">
         <v>1531.266848526715</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.18816612898041</v>
+        <v>82.18816612898051</v>
       </c>
       <c r="C37" t="n">
-        <v>68.37611464518311</v>
+        <v>68.37611464518318</v>
       </c>
       <c r="D37" t="n">
-        <v>68.37611464518311</v>
+        <v>68.37611464518318</v>
       </c>
       <c r="E37" t="n">
-        <v>68.37611464518311</v>
+        <v>68.37611464518318</v>
       </c>
       <c r="F37" t="n">
-        <v>68.37611464518311</v>
+        <v>68.37611464518318</v>
       </c>
       <c r="G37" t="n">
-        <v>55.49532839675055</v>
+        <v>55.49532839675059</v>
       </c>
       <c r="H37" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="I37" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J37" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="K37" t="n">
         <v>114.3849974949682</v>
@@ -7102,7 +7102,7 @@
         <v>249.2413591857573</v>
       </c>
       <c r="M37" t="n">
-        <v>403.3459313849991</v>
+        <v>403.3459313849992</v>
       </c>
       <c r="N37" t="n">
         <v>557.0206987672573</v>
@@ -7114,31 +7114,31 @@
         <v>778.8759849557637</v>
       </c>
       <c r="Q37" t="n">
-        <v>760.0204010295922</v>
+        <v>778.8759849557637</v>
       </c>
       <c r="R37" t="n">
-        <v>760.0204010295922</v>
+        <v>778.8759849557637</v>
       </c>
       <c r="S37" t="n">
-        <v>706.2107381156827</v>
+        <v>694.6475290480247</v>
       </c>
       <c r="T37" t="n">
-        <v>618.2767742338772</v>
+        <v>618.2767742338774</v>
       </c>
       <c r="U37" t="n">
-        <v>486.9032733772736</v>
+        <v>486.9032733772739</v>
       </c>
       <c r="V37" t="n">
-        <v>381.9718869902186</v>
+        <v>381.9718869902189</v>
       </c>
       <c r="W37" t="n">
-        <v>251.6194035621402</v>
+        <v>251.6194035621403</v>
       </c>
       <c r="X37" t="n">
-        <v>176.1708575120383</v>
+        <v>176.1708575120385</v>
       </c>
       <c r="Y37" t="n">
-        <v>109.9396167588378</v>
+        <v>109.939616758838</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.922431668988</v>
+        <v>1425.922431668987</v>
       </c>
       <c r="C38" t="n">
-        <v>1199.792591056318</v>
+        <v>1199.792591056317</v>
       </c>
       <c r="D38" t="n">
-        <v>982.7725443380634</v>
+        <v>982.7725443380625</v>
       </c>
       <c r="E38" t="n">
-        <v>743.7907424986925</v>
+        <v>743.7907424986918</v>
       </c>
       <c r="F38" t="n">
-        <v>485.4434698633854</v>
+        <v>485.4434698633845</v>
       </c>
       <c r="G38" t="n">
         <v>225.6673923846452</v>
       </c>
       <c r="H38" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375343</v>
       </c>
       <c r="I38" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375343</v>
       </c>
       <c r="J38" t="n">
-        <v>169.6029711321568</v>
+        <v>169.6029711321564</v>
       </c>
       <c r="K38" t="n">
-        <v>475.0705578665061</v>
+        <v>475.0705578665057</v>
       </c>
       <c r="L38" t="n">
-        <v>904.0001174013312</v>
+        <v>904.0001174013307</v>
       </c>
       <c r="M38" t="n">
         <v>1387.41655662286</v>
       </c>
       <c r="N38" t="n">
-        <v>1857.384350833083</v>
+        <v>1857.384350833082</v>
       </c>
       <c r="O38" t="n">
         <v>2248.918622866438</v>
@@ -7193,31 +7193,31 @@
         <v>2550.926605720322</v>
       </c>
       <c r="Q38" t="n">
-        <v>2700.817949687672</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="R38" t="n">
-        <v>2700.817949687672</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="S38" t="n">
         <v>2681.333337571029</v>
       </c>
       <c r="T38" t="n">
-        <v>2615.072080014001</v>
+        <v>2615.072080013999</v>
       </c>
       <c r="U38" t="n">
-        <v>2516.032581063521</v>
+        <v>2516.03258106352</v>
       </c>
       <c r="V38" t="n">
-        <v>2334.857225013985</v>
+        <v>2334.857225013984</v>
       </c>
       <c r="W38" t="n">
-        <v>2128.126212926109</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X38" t="n">
-        <v>1901.899990502124</v>
+        <v>1901.899990502123</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.162053132485</v>
+        <v>1664.162053132484</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I39" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375343</v>
       </c>
       <c r="J39" t="n">
-        <v>140.2312601394512</v>
+        <v>54.01635899375343</v>
       </c>
       <c r="K39" t="n">
-        <v>414.0928773007162</v>
+        <v>327.8779761550184</v>
       </c>
       <c r="L39" t="n">
-        <v>839.577094556452</v>
+        <v>753.3621934107543</v>
       </c>
       <c r="M39" t="n">
-        <v>1394.233622198307</v>
+        <v>1308.01872105261</v>
       </c>
       <c r="N39" t="n">
-        <v>1976.965160702102</v>
+        <v>1890.750259556404</v>
       </c>
       <c r="O39" t="n">
         <v>1988.844128843815</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.18816612898041</v>
+        <v>93.75137519663852</v>
       </c>
       <c r="C40" t="n">
-        <v>68.37611464518311</v>
+        <v>79.93932371284119</v>
       </c>
       <c r="D40" t="n">
-        <v>68.37611464518311</v>
+        <v>79.93932371284119</v>
       </c>
       <c r="E40" t="n">
-        <v>68.37611464518311</v>
+        <v>79.93932371284119</v>
       </c>
       <c r="F40" t="n">
-        <v>68.37611464518311</v>
+        <v>79.93932371284119</v>
       </c>
       <c r="G40" t="n">
-        <v>55.49532839675055</v>
+        <v>55.49532839675057</v>
       </c>
       <c r="H40" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375343</v>
       </c>
       <c r="I40" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375343</v>
       </c>
       <c r="J40" t="n">
-        <v>54.01635899375344</v>
+        <v>54.01635899375343</v>
       </c>
       <c r="K40" t="n">
         <v>114.3849974949682</v>
@@ -7351,31 +7351,31 @@
         <v>778.8759849557637</v>
       </c>
       <c r="Q40" t="n">
-        <v>778.8759849557637</v>
+        <v>760.0204010295922</v>
       </c>
       <c r="R40" t="n">
-        <v>778.8759849557637</v>
+        <v>760.0204010295922</v>
       </c>
       <c r="S40" t="n">
-        <v>694.6475290480245</v>
+        <v>706.2107381156827</v>
       </c>
       <c r="T40" t="n">
-        <v>618.2767742338772</v>
+        <v>629.8399833015354</v>
       </c>
       <c r="U40" t="n">
-        <v>486.9032733772736</v>
+        <v>498.4664824449319</v>
       </c>
       <c r="V40" t="n">
-        <v>381.9718869902186</v>
+        <v>393.5350960578769</v>
       </c>
       <c r="W40" t="n">
-        <v>251.6194035621402</v>
+        <v>263.1826126297984</v>
       </c>
       <c r="X40" t="n">
-        <v>176.1708575120383</v>
+        <v>187.7340665796965</v>
       </c>
       <c r="Y40" t="n">
-        <v>109.9396167588378</v>
+        <v>121.502825826496</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1199.792591056317</v>
       </c>
       <c r="D41" t="n">
-        <v>982.7725443380627</v>
+        <v>982.7725443380632</v>
       </c>
       <c r="E41" t="n">
-        <v>743.7907424986921</v>
+        <v>743.7907424986925</v>
       </c>
       <c r="F41" t="n">
-        <v>485.443469863385</v>
+        <v>485.4434698633854</v>
       </c>
       <c r="G41" t="n">
         <v>225.6673923846451</v>
@@ -7409,10 +7409,10 @@
         <v>54.01635899375345</v>
       </c>
       <c r="J41" t="n">
-        <v>169.6029711321573</v>
+        <v>169.6029711321574</v>
       </c>
       <c r="K41" t="n">
-        <v>475.0705578665065</v>
+        <v>475.0705578665066</v>
       </c>
       <c r="L41" t="n">
         <v>904.0001174013316</v>
@@ -7448,10 +7448,10 @@
         <v>2334.857225013984</v>
       </c>
       <c r="W41" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X41" t="n">
-        <v>1901.899990502123</v>
+        <v>1901.899990502124</v>
       </c>
       <c r="Y41" t="n">
         <v>1664.162053132484</v>
@@ -7491,19 +7491,19 @@
         <v>140.2312601394512</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9615551184032</v>
+        <v>414.0928773007162</v>
       </c>
       <c r="L42" t="n">
-        <v>748.4457723741391</v>
+        <v>839.577094556452</v>
       </c>
       <c r="M42" t="n">
-        <v>1303.102300015994</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N42" t="n">
-        <v>1885.833838519789</v>
+        <v>1976.965160702102</v>
       </c>
       <c r="O42" t="n">
-        <v>2343.411118836889</v>
+        <v>1988.844128843815</v>
       </c>
       <c r="P42" t="n">
         <v>2343.411118836889</v>
@@ -7588,13 +7588,13 @@
         <v>778.8759849557637</v>
       </c>
       <c r="Q43" t="n">
-        <v>760.0204010295923</v>
+        <v>778.8759849557637</v>
       </c>
       <c r="R43" t="n">
-        <v>760.0204010295923</v>
+        <v>748.4571919619329</v>
       </c>
       <c r="S43" t="n">
-        <v>706.2107381156829</v>
+        <v>694.6475290480236</v>
       </c>
       <c r="T43" t="n">
         <v>618.2767742338764</v>
@@ -7625,73 +7625,73 @@
         <v>1425.922431668987</v>
       </c>
       <c r="C44" t="n">
-        <v>1199.792591056316</v>
+        <v>1199.792591056317</v>
       </c>
       <c r="D44" t="n">
-        <v>982.7725443380623</v>
+        <v>982.7725443380627</v>
       </c>
       <c r="E44" t="n">
-        <v>743.7907424986913</v>
+        <v>743.790742498692</v>
       </c>
       <c r="F44" t="n">
-        <v>485.4434698633845</v>
+        <v>485.4434698633847</v>
       </c>
       <c r="G44" t="n">
-        <v>225.6673923846451</v>
+        <v>225.6673923846452</v>
       </c>
       <c r="H44" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="I44" t="n">
-        <v>54.01635899375152</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J44" t="n">
-        <v>169.6029711321555</v>
+        <v>169.6029711321574</v>
       </c>
       <c r="K44" t="n">
-        <v>475.0705578665048</v>
+        <v>475.0705578665067</v>
       </c>
       <c r="L44" t="n">
-        <v>904.0001174013298</v>
+        <v>904.0001174013317</v>
       </c>
       <c r="M44" t="n">
-        <v>1387.416556622859</v>
+        <v>1387.416556622861</v>
       </c>
       <c r="N44" t="n">
-        <v>1857.384350833081</v>
+        <v>1857.384350833083</v>
       </c>
       <c r="O44" t="n">
-        <v>2248.918622866437</v>
+        <v>2248.918622866439</v>
       </c>
       <c r="P44" t="n">
-        <v>2550.926605720321</v>
+        <v>2550.926605720323</v>
       </c>
       <c r="Q44" t="n">
-        <v>2700.817949687671</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="R44" t="n">
-        <v>2700.817949687671</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="S44" t="n">
-        <v>2681.333337571028</v>
+        <v>2681.333337571029</v>
       </c>
       <c r="T44" t="n">
-        <v>2615.072080013998</v>
+        <v>2615.072080014001</v>
       </c>
       <c r="U44" t="n">
-        <v>2516.03258106352</v>
+        <v>2516.032581063521</v>
       </c>
       <c r="V44" t="n">
-        <v>2334.857225013983</v>
+        <v>2334.857225013985</v>
       </c>
       <c r="W44" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X44" t="n">
-        <v>1901.899990502123</v>
+        <v>1901.899990502124</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.162053132483</v>
+        <v>1664.162053132484</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I45" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J45" t="n">
-        <v>54.01635899375341</v>
+        <v>140.2312601394512</v>
       </c>
       <c r="K45" t="n">
-        <v>327.8779761550184</v>
+        <v>414.0928773007162</v>
       </c>
       <c r="L45" t="n">
-        <v>393.878782381065</v>
+        <v>839.577094556452</v>
       </c>
       <c r="M45" t="n">
-        <v>948.5353100229203</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N45" t="n">
         <v>1531.266848526715</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.18816612898013</v>
+        <v>82.18816612898051</v>
       </c>
       <c r="C46" t="n">
-        <v>68.37611464518291</v>
+        <v>68.37611464518318</v>
       </c>
       <c r="D46" t="n">
-        <v>68.37611464518291</v>
+        <v>68.37611464518318</v>
       </c>
       <c r="E46" t="n">
-        <v>68.37611464518291</v>
+        <v>68.37611464518318</v>
       </c>
       <c r="F46" t="n">
-        <v>68.37611464518291</v>
+        <v>68.37611464518318</v>
       </c>
       <c r="G46" t="n">
-        <v>55.49532839675044</v>
+        <v>55.49532839675059</v>
       </c>
       <c r="H46" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="I46" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="J46" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375345</v>
       </c>
       <c r="K46" t="n">
         <v>114.3849974949682</v>
@@ -7813,7 +7813,7 @@
         <v>249.2413591857573</v>
       </c>
       <c r="M46" t="n">
-        <v>403.3459313849991</v>
+        <v>403.3459313849992</v>
       </c>
       <c r="N46" t="n">
         <v>557.0206987672573</v>
@@ -7831,25 +7831,25 @@
         <v>778.8759849557637</v>
       </c>
       <c r="S46" t="n">
-        <v>725.0663220418543</v>
+        <v>694.6475290480247</v>
       </c>
       <c r="T46" t="n">
-        <v>618.2767742338763</v>
+        <v>618.2767742338774</v>
       </c>
       <c r="U46" t="n">
-        <v>486.9032733772729</v>
+        <v>486.9032733772739</v>
       </c>
       <c r="V46" t="n">
-        <v>381.971886990218</v>
+        <v>381.9718869902189</v>
       </c>
       <c r="W46" t="n">
-        <v>251.6194035621396</v>
+        <v>251.6194035621403</v>
       </c>
       <c r="X46" t="n">
-        <v>176.1708575120379</v>
+        <v>176.1708575120385</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.9396167588375</v>
+        <v>109.939616758838</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>159.0427441082865</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>190.7659506544006</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>203.5031588434685</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>198.6167178772967</v>
       </c>
       <c r="N8" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>198.415200160258</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>199.8197557315104</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.5663197033441</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,25 +8532,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>123.4565725468042</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N9" t="n">
-        <v>118.6580877480622</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O9" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8614,19 +8614,19 @@
         <v>116.7662189439139</v>
       </c>
       <c r="L10" t="n">
-        <v>121.53674615886</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>124.820146137783</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
         <v>115.2049082581395</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8693,7 +8693,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>528.1430780122258</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>252.11642177275</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>124.6040899110582</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>76.83258720950349</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>67.17691199386235</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>454.8256320601736</v>
+        <v>449.5726674404364</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.305372047405</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8942,7 +8942,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229252</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>155.2162675463263</v>
+        <v>155.2162675463262</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236958</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9176,7 +9176,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415653</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9240,13 +9240,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>76.83258720950349</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>118.9778922988513</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>158.5963859124436</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>78.305372047405</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236958</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>155.2162675463263</v>
       </c>
       <c r="N21" t="n">
-        <v>172.9447713179458</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236931</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9653,7 +9653,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229275</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -10194,16 +10194,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>52.31041126244046</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>172.9447713179457</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>491.6027373631312</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10662,19 +10662,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950349</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>67.17691199386236</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>395.6057884213411</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>172.9447713179458</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236953</v>
+        <v>219.8255997236949</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950349</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10914,7 +10914,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>61.82069973107461</v>
+        <v>148.9064584641026</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>421.389036342514</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>251.7529675281573</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,10 +11151,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>61.82069973107461</v>
       </c>
       <c r="P42" t="n">
-        <v>55.85312449143955</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11373,19 +11373,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>76.83258720950349</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>118.9778922988512</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>172.9447713179457</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>305.1334033542745</v>
       </c>
       <c r="C11" t="n">
-        <v>272.0158052025149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>305.8681619263896</v>
+        <v>305.8681619263897</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>325.0399780143669</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>239.2107011623955</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.56594410088917</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>293.240138305157</v>
+        <v>262.8592074023166</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>82.95010907437204</v>
       </c>
       <c r="D13" t="n">
-        <v>1.018796491593747</v>
+        <v>66.57147347195043</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.51922332772988</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98614765591607</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>82.02815649136095</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.59409953341375</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>173.158250628597</v>
+        <v>130.5334383951906</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>134.8451064510811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>91.24996246477914</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>239.2107011623955</v>
+        <v>239.2107011623954</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>66.12017415851099</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.56594410088914</v>
       </c>
       <c r="T14" t="n">
         <v>134.8748230868716</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0212244854125</v>
+        <v>167.3252820663874</v>
       </c>
       <c r="V14" t="n">
         <v>248.6397805944535</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>293.240138305157</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>32.71292583296302</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>52.59409953341373</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>199.33594395345</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>198.3251366992103</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.9702386950134</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.9413201079418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1173000.789930991</v>
+        <v>1173000.78993099</v>
       </c>
     </row>
     <row r="6">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134028.4105137782</v>
+        <v>134028.4105137783</v>
       </c>
       <c r="C2" t="n">
-        <v>134028.4105137782</v>
+        <v>134028.4105137783</v>
       </c>
       <c r="D2" t="n">
         <v>134334.2105864818</v>
@@ -26323,7 +26323,7 @@
         <v>115837.5930460733</v>
       </c>
       <c r="F2" t="n">
-        <v>118106.9862231417</v>
+        <v>118106.9862231415</v>
       </c>
       <c r="G2" t="n">
         <v>134334.210586482</v>
@@ -26335,7 +26335,7 @@
         <v>134334.210586482</v>
       </c>
       <c r="J2" t="n">
-        <v>134334.2105864818</v>
+        <v>134334.2105864817</v>
       </c>
       <c r="K2" t="n">
         <v>134334.2105864818</v>
@@ -26344,7 +26344,7 @@
         <v>134334.2105864818</v>
       </c>
       <c r="M2" t="n">
-        <v>134334.210586482</v>
+        <v>134334.2105864819</v>
       </c>
       <c r="N2" t="n">
         <v>134334.210586482</v>
@@ -26375,34 +26375,34 @@
         <v>357147.4969845475</v>
       </c>
       <c r="F3" t="n">
-        <v>12028.22113062395</v>
+        <v>12028.22113062421</v>
       </c>
       <c r="G3" t="n">
-        <v>55420.94248433017</v>
+        <v>55420.94248433007</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>78611.30900564831</v>
+        <v>78611.30900564804</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.02887219659585e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>57892.84581644305</v>
+        <v>57892.84581644303</v>
       </c>
       <c r="M3" t="n">
-        <v>147153.2244248484</v>
+        <v>147153.2244248483</v>
       </c>
       <c r="N3" t="n">
-        <v>10281.91548711227</v>
+        <v>10281.91548711236</v>
       </c>
       <c r="O3" t="n">
-        <v>26903.41048516073</v>
+        <v>26903.41048516075</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>387212.3726853604</v>
       </c>
       <c r="E4" t="n">
-        <v>219407.5105365946</v>
+        <v>219407.5105365945</v>
       </c>
       <c r="F4" t="n">
-        <v>223396.7363758595</v>
+        <v>223396.7363758596</v>
       </c>
       <c r="G4" t="n">
         <v>276131.5127871009</v>
       </c>
       <c r="H4" t="n">
-        <v>276131.512787101</v>
+        <v>276131.5127871009</v>
       </c>
       <c r="I4" t="n">
         <v>276131.5127871009</v>
@@ -26479,22 +26479,22 @@
         <v>48456.45393157421</v>
       </c>
       <c r="F5" t="n">
-        <v>51008.80814983691</v>
+        <v>51008.80814983694</v>
       </c>
       <c r="G5" t="n">
-        <v>56832.78716698083</v>
+        <v>56832.78716698088</v>
       </c>
       <c r="H5" t="n">
-        <v>56832.78716698089</v>
+        <v>56832.78716698088</v>
       </c>
       <c r="I5" t="n">
-        <v>56832.78716698084</v>
+        <v>56832.78716698088</v>
       </c>
       <c r="J5" t="n">
+        <v>64532.36480346456</v>
+      </c>
+      <c r="K5" t="n">
         <v>64532.36480346459</v>
-      </c>
-      <c r="K5" t="n">
-        <v>64532.3648034646</v>
       </c>
       <c r="L5" t="n">
         <v>64065.99669683333</v>
@@ -26503,13 +26503,13 @@
         <v>56832.78716698087</v>
       </c>
       <c r="N5" t="n">
-        <v>56832.78716698087</v>
+        <v>56832.78716698086</v>
       </c>
       <c r="O5" t="n">
         <v>56832.78716698088</v>
       </c>
       <c r="P5" t="n">
-        <v>56832.78716698085</v>
+        <v>56832.78716698087</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287594.8488687545</v>
+        <v>-287599.2174412216</v>
       </c>
       <c r="C6" t="n">
-        <v>-287594.8488687545</v>
+        <v>-287599.2174412216</v>
       </c>
       <c r="D6" t="n">
         <v>-290941.7307843624</v>
       </c>
       <c r="E6" t="n">
-        <v>-509173.868406643</v>
+        <v>-509438.1058000773</v>
       </c>
       <c r="F6" t="n">
-        <v>-168326.7794331786</v>
+        <v>-168558.596924084</v>
       </c>
       <c r="G6" t="n">
-        <v>-254051.0318519299</v>
+        <v>-254051.0318519298</v>
       </c>
       <c r="H6" t="n">
-        <v>-198630.0893675999</v>
+        <v>-198630.0893675997</v>
       </c>
       <c r="I6" t="n">
-        <v>-198630.0893675996</v>
+        <v>-198630.0893675997</v>
       </c>
       <c r="J6" t="n">
-        <v>-285976.9216974162</v>
+        <v>-285976.9216974159</v>
       </c>
       <c r="K6" t="n">
-        <v>-207365.6126917679</v>
+        <v>-207365.612691768</v>
       </c>
       <c r="L6" t="n">
         <v>-264728.1227405572</v>
@@ -26555,10 +26555,10 @@
         <v>-345783.3137924481</v>
       </c>
       <c r="N6" t="n">
-        <v>-208912.004854712</v>
+        <v>-208912.0048547121</v>
       </c>
       <c r="O6" t="n">
-        <v>-225533.4998527605</v>
+        <v>-225533.4998527606</v>
       </c>
       <c r="P6" t="n">
         <v>-198630.0893675997</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="F2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="G2" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="H2" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="I2" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="J2" t="n">
         <v>102.9054412118635</v>
@@ -26713,19 +26713,19 @@
         <v>102.9054412118635</v>
       </c>
       <c r="L2" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="M2" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="N2" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="O2" t="n">
         <v>154.2458788739773</v>
       </c>
       <c r="P2" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>129.0393367280674</v>
       </c>
       <c r="K3" t="n">
-        <v>129.0393367280675</v>
+        <v>129.0393367280674</v>
       </c>
       <c r="L3" t="n">
         <v>129.0393367280674</v>
@@ -26799,37 +26799,37 @@
         <v>633.2249772531233</v>
       </c>
       <c r="F4" t="n">
-        <v>675.2044874219175</v>
+        <v>675.2044874219181</v>
       </c>
       <c r="G4" t="n">
-        <v>675.2044874219172</v>
+        <v>675.2044874219181</v>
       </c>
       <c r="H4" t="n">
         <v>675.2044874219181</v>
       </c>
       <c r="I4" t="n">
-        <v>675.2044874219174</v>
+        <v>675.2044874219181</v>
       </c>
       <c r="J4" t="n">
-        <v>872.8314099597461</v>
+        <v>872.8314099597458</v>
       </c>
       <c r="K4" t="n">
-        <v>872.8314099597463</v>
+        <v>872.8314099597462</v>
       </c>
       <c r="L4" t="n">
-        <v>860.8884632793925</v>
+        <v>860.8884632793923</v>
       </c>
       <c r="M4" t="n">
-        <v>675.204487421918</v>
+        <v>675.2044874219181</v>
       </c>
       <c r="N4" t="n">
-        <v>675.204487421918</v>
+        <v>675.2044874219179</v>
       </c>
       <c r="O4" t="n">
         <v>675.2044874219181</v>
       </c>
       <c r="P4" t="n">
-        <v>675.2044874219176</v>
+        <v>675.2044874219181</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>69.27617810541271</v>
+        <v>69.27617810541258</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>33.62926310645082</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.073122543207968e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>72.36605727055381</v>
+        <v>72.3660572705538</v>
       </c>
       <c r="M2" t="n">
-        <v>48.25055849697254</v>
+        <v>48.25055849697242</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.62926310645091</v>
+        <v>33.62926310645094</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27021,31 +27021,31 @@
         <v>621.2820305727694</v>
       </c>
       <c r="F4" t="n">
-        <v>41.97951016879426</v>
+        <v>41.97951016879483</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>197.6269225378277</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>197.6269225378287</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>435.5980547152949</v>
+        <v>435.5980547152951</v>
       </c>
       <c r="N4" t="n">
-        <v>41.97951016879426</v>
+        <v>41.9795101687946</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>69.27617810541271</v>
+        <v>69.27617810541258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>33.62926310645082</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.073122543207968e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27267,13 +27267,13 @@
         <v>621.2820305727694</v>
       </c>
       <c r="N4" t="n">
-        <v>41.97951016879426</v>
+        <v>41.97951016879483</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>389.5934354697146</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>159.1460801229381</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>77.7889569587513</v>
       </c>
       <c r="S8" t="n">
-        <v>173.4137389355957</v>
+        <v>184.8470169628252</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27935,10 +27935,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>126.9309032036343</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>133.6147831633436</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.24347953564978</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>140.7521446813314</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>204.366897797319</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -28017,10 +28017,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>139.9695766602387</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>139.0129017441268</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
-        <v>137.5072161357099</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>218.9042169721241</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>272.3753904354372</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1850047168077</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="C11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="D11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="E11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="F11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="G11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="H11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="I11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.145904701439</v>
+        <v>57.14590470143899</v>
       </c>
       <c r="S11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="T11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="U11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="V11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="W11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="X11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="C13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="D13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="E13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="F13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="G13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="H13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="I13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="J13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="K13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="L13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="M13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="N13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="O13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="P13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="R13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="S13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="T13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="U13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="V13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="W13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="X13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856446</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="C14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="D14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="E14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="F14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="G14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="H14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="I14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.145904701439</v>
+        <v>57.14590470143899</v>
       </c>
       <c r="S14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="T14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="U14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="V14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="W14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="X14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="C16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="D16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="E16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="F16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="G16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="H16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="I16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="J16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="K16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="L16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="M16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="N16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="O16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="P16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="R16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="S16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="T16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="U16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="V16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="W16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="X16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="C17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="D17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="E17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="F17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="G17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="H17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="I17" t="n">
         <v>151.0898749270756</v>
@@ -28612,25 +28612,25 @@
         <v>57.145904701439</v>
       </c>
       <c r="S17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="T17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="U17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="V17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="W17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="X17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="Y17" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
     </row>
     <row r="18">
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="C19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>121.4265691766235</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28734,16 +28734,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="H19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="I19" t="n">
         <v>135.763274184554</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89060340272916</v>
+        <v>43.00520846662179</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>137.5638003019783</v>
       </c>
       <c r="S19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="T19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="U19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="V19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="W19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="X19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="C20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="D20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="E20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="F20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="G20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="H20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="I20" t="n">
         <v>151.0898749270756</v>
@@ -28849,25 +28849,25 @@
         <v>57.145904701439</v>
       </c>
       <c r="S20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="T20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="U20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="V20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="W20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="X20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="Y20" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="C22" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,10 +28971,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100858</v>
       </c>
       <c r="H22" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="I22" t="n">
         <v>135.763274184554</v>
@@ -29007,25 +29007,25 @@
         <v>137.5638003019783</v>
       </c>
       <c r="S22" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="T22" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="U22" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="V22" t="n">
-        <v>124.1312738100845</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="W22" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="X22" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="C23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="D23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="E23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="F23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="G23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="H23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="I23" t="n">
         <v>151.0898749270756</v>
@@ -29086,25 +29086,25 @@
         <v>57.145904701439</v>
       </c>
       <c r="S23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="T23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="U23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="V23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="W23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="X23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="Y23" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="C25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,13 +29208,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="H25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="I25" t="n">
-        <v>135.763274184554</v>
+        <v>105.6486691206627</v>
       </c>
       <c r="J25" t="n">
         <v>43.00520846662179</v>
@@ -29244,25 +29244,25 @@
         <v>137.5638003019783</v>
       </c>
       <c r="S25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="T25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="U25" t="n">
-        <v>124.1312738100846</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="V25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="W25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="X25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
     </row>
     <row r="26">
@@ -29302,7 +29302,7 @@
         <v>102.9054412118635</v>
       </c>
       <c r="L26" t="n">
-        <v>16.42513899469799</v>
+        <v>62.18467550512099</v>
       </c>
       <c r="M26" t="n">
         <v>102.9054412118635</v>
@@ -29320,7 +29320,7 @@
         <v>102.9054412118635</v>
       </c>
       <c r="R26" t="n">
-        <v>102.9054412118635</v>
+        <v>57.145904701439</v>
       </c>
       <c r="S26" t="n">
         <v>102.9054412118635</v>
@@ -29545,7 +29545,7 @@
         <v>102.9054412118635</v>
       </c>
       <c r="N29" t="n">
-        <v>16.42513899469878</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="O29" t="n">
         <v>102.9054412118635</v>
@@ -29554,7 +29554,7 @@
         <v>102.9054412118635</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.9054412118635</v>
+        <v>16.42513899469861</v>
       </c>
       <c r="R29" t="n">
         <v>102.9054412118635</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="C32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="D32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="E32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="F32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="G32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="H32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="I32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="J32" t="n">
-        <v>99.26159830494103</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="L32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="M32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="N32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="O32" t="n">
-        <v>105.9953203770046</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9953203770046</v>
+        <v>99.26159830494012</v>
       </c>
       <c r="R32" t="n">
         <v>57.145904701439</v>
       </c>
       <c r="S32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="T32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="U32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="V32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="W32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="X32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="C34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="D34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="E34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="F34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="G34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="H34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="I34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="J34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="K34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="L34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="M34" t="n">
-        <v>105.9953203770046</v>
+        <v>30.83442740659501</v>
       </c>
       <c r="N34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="O34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="P34" t="n">
-        <v>30.83442740659738</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="R34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="S34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="T34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="U34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="V34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="W34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="X34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.9953203770046</v>
+        <v>105.9953203770047</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="C35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="D35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="E35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="F35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="G35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="H35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="I35" t="n">
         <v>151.0898749270756</v>
@@ -30034,25 +30034,25 @@
         <v>57.145904701439</v>
       </c>
       <c r="S35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="T35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="U35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="V35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="W35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="X35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="Y35" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="C37" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="H37" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="I37" t="n">
         <v>135.763274184554</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>18.66702808690968</v>
       </c>
       <c r="R37" t="n">
         <v>137.5638003019783</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2458788739772</v>
+        <v>124.131273810086</v>
       </c>
       <c r="T37" t="n">
-        <v>142.7983018969955</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="U37" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="V37" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="W37" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="X37" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="C38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="D38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="E38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="F38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="G38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="H38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="I38" t="n">
         <v>151.0898749270756</v>
@@ -30271,25 +30271,25 @@
         <v>57.145904701439</v>
       </c>
       <c r="S38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="T38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="U38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="V38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="W38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="X38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="Y38" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="C40" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>154.2458788739772</v>
+        <v>142.7983018969957</v>
       </c>
       <c r="H40" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="I40" t="n">
         <v>135.763274184554</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.66702808690968</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.5638003019783</v>
       </c>
       <c r="S40" t="n">
-        <v>124.1312738100858</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="T40" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="U40" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="V40" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="W40" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="X40" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739771</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.14590470143899</v>
+        <v>57.145904701439</v>
       </c>
       <c r="S41" t="n">
         <v>154.2458788739773</v>
@@ -30639,7 +30639,7 @@
         <v>135.763274184554</v>
       </c>
       <c r="J43" t="n">
-        <v>43.00520846662178</v>
+        <v>43.00520846662179</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,16 +30660,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>18.66702808690968</v>
       </c>
       <c r="R43" t="n">
-        <v>137.5638003019783</v>
+        <v>107.4491952380859</v>
       </c>
       <c r="S43" t="n">
         <v>154.2458788739773</v>
       </c>
       <c r="T43" t="n">
-        <v>142.7983018969945</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="U43" t="n">
         <v>154.2458788739773</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="C44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="D44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="E44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="F44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="G44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="H44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="I44" t="n">
-        <v>151.0898749270737</v>
+        <v>151.0898749270756</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>57.14590470143899</v>
       </c>
       <c r="S44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="T44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="U44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="V44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="W44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="X44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="Y44" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="C46" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="H46" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="I46" t="n">
         <v>135.763274184554</v>
@@ -30903,25 +30903,25 @@
         <v>137.5638003019783</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2458788739773</v>
+        <v>124.131273810086</v>
       </c>
       <c r="T46" t="n">
-        <v>124.1312738100848</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="U46" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="V46" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="W46" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="X46" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739771</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.518751102424391</v>
+        <v>0.5187511024243912</v>
       </c>
       <c r="H11" t="n">
-        <v>5.312659727703797</v>
+        <v>5.312659727703798</v>
       </c>
       <c r="I11" t="n">
         <v>19.99915187621636</v>
@@ -31762,37 +31762,37 @@
         <v>44.02835137939221</v>
       </c>
       <c r="K11" t="n">
-        <v>65.9870855450167</v>
+        <v>65.98708554501671</v>
       </c>
       <c r="L11" t="n">
-        <v>81.86281459583716</v>
+        <v>81.86281459583719</v>
       </c>
       <c r="M11" t="n">
-        <v>91.08815451357692</v>
+        <v>91.08815451357695</v>
       </c>
       <c r="N11" t="n">
-        <v>92.56205608334024</v>
+        <v>92.56205608334025</v>
       </c>
       <c r="O11" t="n">
-        <v>87.40372480860769</v>
+        <v>87.40372480860771</v>
       </c>
       <c r="P11" t="n">
-        <v>74.59705696750552</v>
+        <v>74.59705696750554</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.019283111932</v>
+        <v>56.01928311193201</v>
       </c>
       <c r="R11" t="n">
-        <v>32.58599893766618</v>
+        <v>32.58599893766619</v>
       </c>
       <c r="S11" t="n">
-        <v>11.82104074649582</v>
+        <v>11.82104074649583</v>
       </c>
       <c r="T11" t="n">
-        <v>2.270832950862773</v>
+        <v>2.270832950862774</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04150008819395128</v>
+        <v>0.04150008819395129</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2775563091886732</v>
+        <v>0.2775563091886733</v>
       </c>
       <c r="H12" t="n">
         <v>2.680609617690608</v>
       </c>
       <c r="I12" t="n">
-        <v>9.55621503127669</v>
+        <v>9.556215031276691</v>
       </c>
       <c r="J12" t="n">
         <v>26.22298445716321</v>
       </c>
       <c r="K12" t="n">
-        <v>44.81925717280431</v>
+        <v>44.81925717280432</v>
       </c>
       <c r="L12" t="n">
-        <v>60.26502230870732</v>
+        <v>60.26502230870734</v>
       </c>
       <c r="M12" t="n">
-        <v>70.32643851679671</v>
+        <v>70.32643851679673</v>
       </c>
       <c r="N12" t="n">
-        <v>72.18777008148743</v>
+        <v>72.18777008148746</v>
       </c>
       <c r="O12" t="n">
-        <v>66.03770659893841</v>
+        <v>66.03770659893843</v>
       </c>
       <c r="P12" t="n">
-        <v>53.00108153270376</v>
+        <v>53.00108153270377</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.42981939748748</v>
+        <v>35.42981939748749</v>
       </c>
       <c r="R12" t="n">
-        <v>17.23283821436342</v>
+        <v>17.23283821436343</v>
       </c>
       <c r="S12" t="n">
-        <v>5.155486707956274</v>
+        <v>5.155486707956275</v>
       </c>
       <c r="T12" t="n">
         <v>1.118746702387678</v>
@@ -31908,28 +31908,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2326938859030723</v>
+        <v>0.2326938859030724</v>
       </c>
       <c r="H13" t="n">
         <v>2.06886018557459</v>
       </c>
       <c r="I13" t="n">
-        <v>6.997739768794213</v>
+        <v>6.997739768794214</v>
       </c>
       <c r="J13" t="n">
-        <v>16.45145773334721</v>
+        <v>16.45145773334722</v>
       </c>
       <c r="K13" t="n">
         <v>27.03479874401149</v>
       </c>
       <c r="L13" t="n">
-        <v>34.59523463689859</v>
+        <v>34.5952346368986</v>
       </c>
       <c r="M13" t="n">
         <v>36.47582431478796</v>
       </c>
       <c r="N13" t="n">
-        <v>35.60851074005835</v>
+        <v>35.60851074005836</v>
       </c>
       <c r="O13" t="n">
         <v>32.89022307291791</v>
@@ -31944,10 +31944,10 @@
         <v>10.46276326978723</v>
       </c>
       <c r="S13" t="n">
-        <v>4.055219811601722</v>
+        <v>4.055219811601723</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9942375124949451</v>
+        <v>0.9942375124949453</v>
       </c>
       <c r="U13" t="n">
         <v>0.01269239377653123</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.518751102424391</v>
+        <v>0.5187511024243912</v>
       </c>
       <c r="H14" t="n">
-        <v>5.312659727703797</v>
+        <v>5.312659727703798</v>
       </c>
       <c r="I14" t="n">
         <v>19.99915187621636</v>
@@ -31999,37 +31999,37 @@
         <v>44.02835137939221</v>
       </c>
       <c r="K14" t="n">
-        <v>65.9870855450167</v>
+        <v>65.98708554501671</v>
       </c>
       <c r="L14" t="n">
-        <v>81.86281459583716</v>
+        <v>81.86281459583719</v>
       </c>
       <c r="M14" t="n">
-        <v>91.08815451357692</v>
+        <v>91.08815451357695</v>
       </c>
       <c r="N14" t="n">
-        <v>92.56205608334024</v>
+        <v>92.56205608334025</v>
       </c>
       <c r="O14" t="n">
-        <v>87.40372480860769</v>
+        <v>87.40372480860771</v>
       </c>
       <c r="P14" t="n">
-        <v>74.59705696750552</v>
+        <v>74.59705696750554</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.019283111932</v>
+        <v>56.01928311193201</v>
       </c>
       <c r="R14" t="n">
-        <v>32.58599893766618</v>
+        <v>32.58599893766619</v>
       </c>
       <c r="S14" t="n">
-        <v>11.82104074649582</v>
+        <v>11.82104074649583</v>
       </c>
       <c r="T14" t="n">
-        <v>2.270832950862773</v>
+        <v>2.270832950862774</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04150008819395128</v>
+        <v>0.04150008819395129</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2775563091886732</v>
+        <v>0.2775563091886733</v>
       </c>
       <c r="H15" t="n">
         <v>2.680609617690608</v>
       </c>
       <c r="I15" t="n">
-        <v>9.55621503127669</v>
+        <v>9.556215031276691</v>
       </c>
       <c r="J15" t="n">
         <v>26.22298445716321</v>
       </c>
       <c r="K15" t="n">
-        <v>44.81925717280431</v>
+        <v>44.81925717280432</v>
       </c>
       <c r="L15" t="n">
-        <v>60.26502230870732</v>
+        <v>60.26502230870734</v>
       </c>
       <c r="M15" t="n">
-        <v>70.32643851679671</v>
+        <v>70.32643851679673</v>
       </c>
       <c r="N15" t="n">
-        <v>72.18777008148743</v>
+        <v>72.18777008148746</v>
       </c>
       <c r="O15" t="n">
-        <v>66.03770659893841</v>
+        <v>66.03770659893843</v>
       </c>
       <c r="P15" t="n">
-        <v>53.00108153270376</v>
+        <v>53.00108153270377</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.42981939748748</v>
+        <v>35.42981939748749</v>
       </c>
       <c r="R15" t="n">
-        <v>17.23283821436342</v>
+        <v>17.23283821436343</v>
       </c>
       <c r="S15" t="n">
-        <v>5.155486707956274</v>
+        <v>5.155486707956275</v>
       </c>
       <c r="T15" t="n">
         <v>1.118746702387678</v>
@@ -32145,28 +32145,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2326938859030723</v>
+        <v>0.2326938859030724</v>
       </c>
       <c r="H16" t="n">
         <v>2.06886018557459</v>
       </c>
       <c r="I16" t="n">
-        <v>6.997739768794213</v>
+        <v>6.997739768794214</v>
       </c>
       <c r="J16" t="n">
-        <v>16.45145773334721</v>
+        <v>16.45145773334722</v>
       </c>
       <c r="K16" t="n">
         <v>27.03479874401149</v>
       </c>
       <c r="L16" t="n">
-        <v>34.59523463689859</v>
+        <v>34.5952346368986</v>
       </c>
       <c r="M16" t="n">
         <v>36.47582431478796</v>
       </c>
       <c r="N16" t="n">
-        <v>35.60851074005835</v>
+        <v>35.60851074005836</v>
       </c>
       <c r="O16" t="n">
         <v>32.89022307291791</v>
@@ -32181,10 +32181,10 @@
         <v>10.46276326978723</v>
       </c>
       <c r="S16" t="n">
-        <v>4.055219811601722</v>
+        <v>4.055219811601723</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9942375124949451</v>
+        <v>0.9942375124949453</v>
       </c>
       <c r="U16" t="n">
         <v>0.01269239377653123</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5187511024243915</v>
+        <v>0.518751102424391</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3126597277038</v>
+        <v>5.312659727703797</v>
       </c>
       <c r="I29" t="n">
-        <v>19.99915187621637</v>
+        <v>19.99915187621636</v>
       </c>
       <c r="J29" t="n">
-        <v>44.02835137939223</v>
+        <v>44.02835137939221</v>
       </c>
       <c r="K29" t="n">
-        <v>65.98708554501674</v>
+        <v>65.9870855450167</v>
       </c>
       <c r="L29" t="n">
-        <v>81.86281459583722</v>
+        <v>81.86281459583716</v>
       </c>
       <c r="M29" t="n">
-        <v>91.088154513577</v>
+        <v>91.08815451357692</v>
       </c>
       <c r="N29" t="n">
-        <v>92.56205608334029</v>
+        <v>92.56205608334024</v>
       </c>
       <c r="O29" t="n">
-        <v>87.40372480860775</v>
+        <v>87.40372480860769</v>
       </c>
       <c r="P29" t="n">
-        <v>74.59705696750558</v>
+        <v>74.59705696750552</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.01928311193204</v>
+        <v>56.019283111932</v>
       </c>
       <c r="R29" t="n">
-        <v>32.5859989376662</v>
+        <v>32.58599893766618</v>
       </c>
       <c r="S29" t="n">
-        <v>11.82104074649583</v>
+        <v>11.82104074649582</v>
       </c>
       <c r="T29" t="n">
-        <v>2.270832950862775</v>
+        <v>2.270832950862773</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0415000881939513</v>
+        <v>0.04150008819395128</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2775563091886734</v>
+        <v>0.2775563091886732</v>
       </c>
       <c r="H30" t="n">
-        <v>2.68060961769061</v>
+        <v>2.680609617690608</v>
       </c>
       <c r="I30" t="n">
-        <v>9.556215031276697</v>
+        <v>9.55621503127669</v>
       </c>
       <c r="J30" t="n">
-        <v>26.22298445716322</v>
+        <v>26.22298445716321</v>
       </c>
       <c r="K30" t="n">
-        <v>44.81925717280434</v>
+        <v>44.81925717280431</v>
       </c>
       <c r="L30" t="n">
-        <v>60.26502230870737</v>
+        <v>60.26502230870732</v>
       </c>
       <c r="M30" t="n">
-        <v>70.32643851679676</v>
+        <v>70.32643851679671</v>
       </c>
       <c r="N30" t="n">
-        <v>72.18777008148749</v>
+        <v>72.18777008148743</v>
       </c>
       <c r="O30" t="n">
-        <v>66.03770659893846</v>
+        <v>66.03770659893841</v>
       </c>
       <c r="P30" t="n">
-        <v>53.00108153270379</v>
+        <v>53.00108153270376</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.42981939748751</v>
+        <v>35.42981939748748</v>
       </c>
       <c r="R30" t="n">
-        <v>17.23283821436343</v>
+        <v>17.23283821436342</v>
       </c>
       <c r="S30" t="n">
-        <v>5.155486707956277</v>
+        <v>5.155486707956274</v>
       </c>
       <c r="T30" t="n">
-        <v>1.118746702387679</v>
+        <v>1.118746702387678</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01826028349925484</v>
+        <v>0.01826028349925483</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2326938859030725</v>
+        <v>0.2326938859030723</v>
       </c>
       <c r="H31" t="n">
-        <v>2.068860185574591</v>
+        <v>2.06886018557459</v>
       </c>
       <c r="I31" t="n">
-        <v>6.997739768794218</v>
+        <v>6.997739768794213</v>
       </c>
       <c r="J31" t="n">
-        <v>16.45145773334722</v>
+        <v>16.45145773334721</v>
       </c>
       <c r="K31" t="n">
-        <v>27.0347987440115</v>
+        <v>27.03479874401149</v>
       </c>
       <c r="L31" t="n">
-        <v>34.59523463689862</v>
+        <v>34.59523463689859</v>
       </c>
       <c r="M31" t="n">
-        <v>36.47582431478798</v>
+        <v>36.47582431478796</v>
       </c>
       <c r="N31" t="n">
-        <v>35.60851074005838</v>
+        <v>35.60851074005835</v>
       </c>
       <c r="O31" t="n">
-        <v>32.89022307291793</v>
+        <v>32.89022307291791</v>
       </c>
       <c r="P31" t="n">
-        <v>28.14326780049522</v>
+        <v>28.14326780049521</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.48493984593819</v>
+        <v>19.48493984593818</v>
       </c>
       <c r="R31" t="n">
-        <v>10.46276326978724</v>
+        <v>10.46276326978723</v>
       </c>
       <c r="S31" t="n">
-        <v>4.055219811601725</v>
+        <v>4.055219811601722</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9942375124949457</v>
+        <v>0.9942375124949451</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01269239377653124</v>
+        <v>0.01269239377653123</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5187511024243912</v>
+        <v>0.518751102424391</v>
       </c>
       <c r="H41" t="n">
-        <v>5.312659727703798</v>
+        <v>5.312659727703797</v>
       </c>
       <c r="I41" t="n">
         <v>19.99915187621636</v>
@@ -34132,37 +34132,37 @@
         <v>44.02835137939221</v>
       </c>
       <c r="K41" t="n">
-        <v>65.98708554501671</v>
+        <v>65.9870855450167</v>
       </c>
       <c r="L41" t="n">
-        <v>81.86281459583719</v>
+        <v>81.86281459583716</v>
       </c>
       <c r="M41" t="n">
-        <v>91.08815451357695</v>
+        <v>91.08815451357692</v>
       </c>
       <c r="N41" t="n">
-        <v>92.56205608334025</v>
+        <v>92.56205608334024</v>
       </c>
       <c r="O41" t="n">
-        <v>87.40372480860771</v>
+        <v>87.40372480860769</v>
       </c>
       <c r="P41" t="n">
-        <v>74.59705696750554</v>
+        <v>74.59705696750552</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.01928311193201</v>
+        <v>56.019283111932</v>
       </c>
       <c r="R41" t="n">
-        <v>32.58599893766619</v>
+        <v>32.58599893766618</v>
       </c>
       <c r="S41" t="n">
-        <v>11.82104074649583</v>
+        <v>11.82104074649582</v>
       </c>
       <c r="T41" t="n">
-        <v>2.270832950862774</v>
+        <v>2.270832950862773</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04150008819395129</v>
+        <v>0.04150008819395128</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2775563091886733</v>
+        <v>0.2775563091886732</v>
       </c>
       <c r="H42" t="n">
         <v>2.680609617690608</v>
       </c>
       <c r="I42" t="n">
-        <v>9.556215031276691</v>
+        <v>9.55621503127669</v>
       </c>
       <c r="J42" t="n">
         <v>26.22298445716321</v>
       </c>
       <c r="K42" t="n">
-        <v>44.81925717280432</v>
+        <v>44.81925717280431</v>
       </c>
       <c r="L42" t="n">
-        <v>60.26502230870734</v>
+        <v>60.26502230870732</v>
       </c>
       <c r="M42" t="n">
-        <v>70.32643851679673</v>
+        <v>70.32643851679671</v>
       </c>
       <c r="N42" t="n">
-        <v>72.18777008148746</v>
+        <v>72.18777008148743</v>
       </c>
       <c r="O42" t="n">
-        <v>66.03770659893843</v>
+        <v>66.03770659893841</v>
       </c>
       <c r="P42" t="n">
-        <v>53.00108153270377</v>
+        <v>53.00108153270376</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.42981939748749</v>
+        <v>35.42981939748748</v>
       </c>
       <c r="R42" t="n">
-        <v>17.23283821436343</v>
+        <v>17.23283821436342</v>
       </c>
       <c r="S42" t="n">
-        <v>5.155486707956275</v>
+        <v>5.155486707956274</v>
       </c>
       <c r="T42" t="n">
         <v>1.118746702387678</v>
@@ -34278,28 +34278,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2326938859030724</v>
+        <v>0.2326938859030723</v>
       </c>
       <c r="H43" t="n">
         <v>2.06886018557459</v>
       </c>
       <c r="I43" t="n">
-        <v>6.997739768794214</v>
+        <v>6.997739768794213</v>
       </c>
       <c r="J43" t="n">
-        <v>16.45145773334722</v>
+        <v>16.45145773334721</v>
       </c>
       <c r="K43" t="n">
         <v>27.03479874401149</v>
       </c>
       <c r="L43" t="n">
-        <v>34.5952346368986</v>
+        <v>34.59523463689859</v>
       </c>
       <c r="M43" t="n">
         <v>36.47582431478796</v>
       </c>
       <c r="N43" t="n">
-        <v>35.60851074005836</v>
+        <v>35.60851074005835</v>
       </c>
       <c r="O43" t="n">
         <v>32.89022307291791</v>
@@ -34314,10 +34314,10 @@
         <v>10.46276326978723</v>
       </c>
       <c r="S43" t="n">
-        <v>4.055219811601723</v>
+        <v>4.055219811601722</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9942375124949453</v>
+        <v>0.9942375124949451</v>
       </c>
       <c r="U43" t="n">
         <v>0.01269239377653123</v>
@@ -35173,25 +35173,25 @@
         <v>11.94294668035388</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="N9" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="O9" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="P9" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>11.46040338013756</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>308.5531179134841</v>
       </c>
       <c r="L11" t="n">
-        <v>433.2621813483081</v>
+        <v>418.4456804449484</v>
       </c>
       <c r="M11" t="n">
         <v>488.2994335571001</v>
@@ -35425,10 +35425,10 @@
         <v>395.4891636700561</v>
       </c>
       <c r="P11" t="n">
-        <v>138.836669689099</v>
+        <v>305.0585685392765</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.4053979468179</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>87.085758733028</v>
       </c>
       <c r="K12" t="n">
-        <v>276.6278961224899</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>429.7820376320565</v>
       </c>
       <c r="M12" t="n">
-        <v>560.2591188301567</v>
+        <v>560.2591188301568</v>
       </c>
       <c r="N12" t="n">
-        <v>420.2982610739527</v>
+        <v>415.0452964542155</v>
       </c>
       <c r="O12" t="n">
         <v>462.1992730475757</v>
@@ -35507,7 +35507,7 @@
         <v>358.1484747404788</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>194.7951020091988</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.96449230194279</v>
+        <v>41.96449230194268</v>
       </c>
       <c r="K13" t="n">
-        <v>145.9481234970644</v>
+        <v>145.9481234970642</v>
       </c>
       <c r="L13" t="n">
-        <v>221.1882479309778</v>
+        <v>221.1882479309777</v>
       </c>
       <c r="M13" t="n">
-        <v>240.6308848082028</v>
+        <v>240.6308848082027</v>
       </c>
       <c r="N13" t="n">
-        <v>240.1967385284213</v>
+        <v>240.1967385284212</v>
       </c>
       <c r="O13" t="n">
-        <v>217.3181526250074</v>
+        <v>217.3181526250073</v>
       </c>
       <c r="P13" t="n">
-        <v>176.7174975873808</v>
+        <v>176.7174975873807</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.3026726816549</v>
+        <v>66.3026726816548</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>395.4891636700561</v>
       </c>
       <c r="P14" t="n">
-        <v>305.0585685392742</v>
+        <v>305.0585685392765</v>
       </c>
       <c r="Q14" t="n">
         <v>151.4053979468179</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.96449230194279</v>
+        <v>41.96449230194281</v>
       </c>
       <c r="K16" t="n">
         <v>145.9481234970644</v>
@@ -35823,7 +35823,7 @@
         <v>176.7174975873808</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.3026726816549</v>
+        <v>66.30267268165491</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.7541536751555</v>
+        <v>116.7541536751554</v>
       </c>
       <c r="K17" t="n">
         <v>308.5531179134841</v>
@@ -35896,7 +35896,7 @@
         <v>474.7149436466894</v>
       </c>
       <c r="O17" t="n">
-        <v>395.4891636700525</v>
+        <v>395.4891636700561</v>
       </c>
       <c r="P17" t="n">
         <v>305.0585685392765</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>87.085758733028</v>
       </c>
       <c r="K18" t="n">
         <v>276.6278961224899</v>
       </c>
       <c r="L18" t="n">
-        <v>66.66748103641085</v>
+        <v>429.7820376320565</v>
       </c>
       <c r="M18" t="n">
         <v>560.2591188301567</v>
@@ -35978,10 +35978,10 @@
         <v>462.1992730475757</v>
       </c>
       <c r="P18" t="n">
-        <v>358.1484747404788</v>
+        <v>102.743261421004</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.7951020091988</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.7541536751555</v>
+        <v>116.7541536751554</v>
       </c>
       <c r="K20" t="n">
         <v>308.5531179134841</v>
@@ -36206,10 +36206,10 @@
         <v>429.7820376320565</v>
       </c>
       <c r="M21" t="n">
-        <v>560.2591188301567</v>
+        <v>110.0588035014831</v>
       </c>
       <c r="N21" t="n">
-        <v>138.4174003317249</v>
+        <v>588.6177156603986</v>
       </c>
       <c r="O21" t="n">
         <v>462.1992730475757</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.7541536751527</v>
+        <v>116.7541536751555</v>
       </c>
       <c r="K23" t="n">
         <v>308.5531179134841</v>
@@ -36598,7 +36598,7 @@
         <v>411.4585591253476</v>
       </c>
       <c r="L26" t="n">
-        <v>449.6873203430061</v>
+        <v>495.4468568534291</v>
       </c>
       <c r="M26" t="n">
         <v>591.2048747689637</v>
@@ -36616,7 +36616,7 @@
         <v>254.3108391586814</v>
       </c>
       <c r="R26" t="n">
-        <v>45.75953651042453</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.6595948870191</v>
+        <v>219.659594887019</v>
       </c>
       <c r="K29" t="n">
-        <v>411.4585591253477</v>
+        <v>411.4585591253476</v>
       </c>
       <c r="L29" t="n">
-        <v>536.1676225601717</v>
+        <v>536.1676225601716</v>
       </c>
       <c r="M29" t="n">
-        <v>591.2048747689637</v>
+        <v>591.2048747689636</v>
       </c>
       <c r="N29" t="n">
-        <v>491.1400826413883</v>
+        <v>577.6203848585531</v>
       </c>
       <c r="O29" t="n">
-        <v>498.3946048819197</v>
+        <v>498.3946048819196</v>
       </c>
       <c r="P29" t="n">
-        <v>407.9640097511401</v>
+        <v>407.96400975114</v>
       </c>
       <c r="Q29" t="n">
-        <v>254.3108391586815</v>
+        <v>167.8305369415165</v>
       </c>
       <c r="R29" t="n">
-        <v>45.75953651042455</v>
+        <v>45.75953651042452</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.08575873302802</v>
+        <v>87.085758733028</v>
       </c>
       <c r="K30" t="n">
         <v>276.6278961224899</v>
       </c>
       <c r="L30" t="n">
-        <v>429.7820376320565</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>560.2591188301568</v>
+        <v>560.2591188301567</v>
       </c>
       <c r="N30" t="n">
-        <v>138.4174003317249</v>
+        <v>588.6177156603986</v>
       </c>
       <c r="O30" t="n">
-        <v>462.1992730475757</v>
+        <v>441.7809953509584</v>
       </c>
       <c r="P30" t="n">
         <v>358.1484747404788</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.90023274524175</v>
+        <v>59.90023274524173</v>
       </c>
       <c r="K31" t="n">
         <v>163.8838639403633</v>
@@ -36996,10 +36996,10 @@
         <v>239.1239883742768</v>
       </c>
       <c r="M31" t="n">
-        <v>258.5666252515018</v>
+        <v>258.5666252515017</v>
       </c>
       <c r="N31" t="n">
-        <v>258.1324789717203</v>
+        <v>258.1324789717202</v>
       </c>
       <c r="O31" t="n">
         <v>235.2538930683064</v>
@@ -37008,7 +37008,7 @@
         <v>194.6532380306797</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.23841312495387</v>
+        <v>84.23841312495384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>216.0157519800965</v>
+        <v>222.7494740521602</v>
       </c>
       <c r="K32" t="n">
-        <v>308.5531179134841</v>
+        <v>414.5484382904889</v>
       </c>
       <c r="L32" t="n">
         <v>539.2575017253127</v>
       </c>
       <c r="M32" t="n">
-        <v>594.2947539341047</v>
+        <v>594.2947539341048</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7102640236941</v>
+        <v>580.7102640236942</v>
       </c>
       <c r="O32" t="n">
-        <v>501.4844840470608</v>
+        <v>395.4891636700561</v>
       </c>
       <c r="P32" t="n">
-        <v>411.0538889162811</v>
+        <v>411.0538889162812</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.4007183238225</v>
+        <v>250.666996251758</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.99011191038284</v>
+        <v>62.99011191038294</v>
       </c>
       <c r="K34" t="n">
-        <v>166.9737431055044</v>
+        <v>166.9737431055045</v>
       </c>
       <c r="L34" t="n">
-        <v>242.2138675394179</v>
+        <v>242.213867539418</v>
       </c>
       <c r="M34" t="n">
-        <v>261.6565044166429</v>
+        <v>186.4956114462332</v>
       </c>
       <c r="N34" t="n">
-        <v>261.2223581368613</v>
+        <v>261.2223581368614</v>
       </c>
       <c r="O34" t="n">
-        <v>238.3437722334475</v>
+        <v>238.3437722334476</v>
       </c>
       <c r="P34" t="n">
-        <v>122.5822242254136</v>
+        <v>197.743117195821</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.32829229009495</v>
+        <v>87.32829229009505</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.085758733028</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>276.6278961224899</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>429.7820376320565</v>
+        <v>343.2953771589006</v>
       </c>
       <c r="M36" t="n">
         <v>560.2591188301567</v>
       </c>
       <c r="N36" t="n">
-        <v>138.4174003317249</v>
+        <v>588.6177156603986</v>
       </c>
       <c r="O36" t="n">
         <v>462.1992730475757</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.7541536751549</v>
+        <v>116.7541536751545</v>
       </c>
       <c r="K38" t="n">
         <v>308.5531179134841</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>87.085758733028</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>276.6278961224899</v>
@@ -37634,7 +37634,7 @@
         <v>588.6177156603986</v>
       </c>
       <c r="O39" t="n">
-        <v>11.99895771890192</v>
+        <v>99.08471645192989</v>
       </c>
       <c r="P39" t="n">
         <v>358.1484747404788</v>
@@ -37780,7 +37780,7 @@
         <v>116.7541536751555</v>
       </c>
       <c r="K41" t="n">
-        <v>308.5531179134841</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L41" t="n">
         <v>433.2621813483081</v>
@@ -37859,22 +37859,22 @@
         <v>87.085758733028</v>
       </c>
       <c r="K42" t="n">
-        <v>184.576055534295</v>
+        <v>276.6278961224899</v>
       </c>
       <c r="L42" t="n">
         <v>429.7820376320565</v>
       </c>
       <c r="M42" t="n">
-        <v>560.2591188301568</v>
+        <v>560.2591188301567</v>
       </c>
       <c r="N42" t="n">
         <v>588.6177156603986</v>
       </c>
       <c r="O42" t="n">
-        <v>462.1992730475757</v>
+        <v>11.99895771890192</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>358.1484747404788</v>
       </c>
       <c r="Q42" t="n">
         <v>194.7951020091988</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>60.97842272849979</v>
+        <v>60.97842272849978</v>
       </c>
       <c r="L43" t="n">
         <v>136.2185471624132</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>87.085758733028</v>
       </c>
       <c r="K45" t="n">
         <v>276.6278961224899</v>
       </c>
       <c r="L45" t="n">
-        <v>66.66748103641073</v>
+        <v>429.7820376320565</v>
       </c>
       <c r="M45" t="n">
         <v>560.2591188301568</v>
       </c>
       <c r="N45" t="n">
-        <v>588.6177156603986</v>
+        <v>138.4174003317249</v>
       </c>
       <c r="O45" t="n">
         <v>462.1992730475757</v>
